--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>861002.286217624</v>
+        <v>889432.3191390566</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>335690.3293889763</v>
+        <v>242811.3234924421</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072688</v>
+        <v>10911602.29072687</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>124.9488863009592</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,31 +735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>131.1482206838727</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>37.18582309281558</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>49.3111039422953</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,23 +1130,23 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
         <v>263.2420339516669</v>
       </c>
-      <c r="C8" t="n">
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>231.8635835046281</v>
+      </c>
+      <c r="G8" t="n">
         <v>263.2420339516669</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>227.7664834517761</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>105.3830043755893</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>105.3830043755893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1306,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>159.8350691069752</v>
+        <v>69.40990664858384</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>138.3038958997682</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,28 +1415,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>184.5808806410313</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1607,25 +1607,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>266.2323896073966</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>288.1222805488047</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,28 +1652,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1698,13 +1698,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1777,16 +1777,16 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155.3197306044665</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1841,22 +1841,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>163.8950372953901</v>
+        <v>11.39108932486054</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1892,25 +1892,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1926,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S18" t="n">
         <v>156.5912426325231</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,19 +2087,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>173.6996162755682</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>411.6628440710896</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553078</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2211,7 +2211,7 @@
         <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U21" t="n">
         <v>225.8879277888686</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>101.7806877295488</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>190.2713935802968</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,22 +2315,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>401.3550844723776</v>
+        <v>334.5814439292062</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -2369,22 +2369,22 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,28 +2476,28 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>18.3768222575565</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>213.6743229269899</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0354783084789</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2570,7 +2570,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2612,13 +2612,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>21.06378739764988</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2713,19 +2713,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>90.04875807993751</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>59.72683757586851</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>354.3958624239608</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.7081597560724</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,19 +2950,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,13 +3004,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.63926978364023</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3029,22 +3029,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>278.6372557225944</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3083,10 +3083,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>60.48389944297998</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3095,7 +3095,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3184,13 +3184,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,13 +3229,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>120.4120358099644</v>
       </c>
       <c r="S34" t="n">
-        <v>205.1332020905459</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>27.31958316414101</v>
+        <v>26.65383542552197</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3408,7 +3408,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034773</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,7 +3430,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>89.04055620987452</v>
       </c>
       <c r="S37" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3506,10 +3506,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3518,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,19 +3554,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>57.70416378283698</v>
+        <v>234.4047868494494</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3594,13 +3594,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>52.61100976783523</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3670,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>68.49439899867237</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,16 +3749,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>15.11714581632422</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3797,13 +3797,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>257.7464203451303</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3831,7 +3831,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231968</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3898,19 +3898,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>59.66385641544514</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,13 +3946,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>155.4526127311942</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,16 +3980,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>269.513456948084</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>45.53661789137337</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>157.0044783406139</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4189,19 +4189,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>94.6392697836404</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I2" t="n">
         <v>19.28114311021272</v>
@@ -4352,28 +4352,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>601.5428246748836</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V2" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="X2" t="n">
-        <v>262.7299197543128</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.28114311021272</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>380.2300195200815</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="C3" t="n">
-        <v>205.7769902389545</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="D3" t="n">
-        <v>56.84258057770322</v>
+        <v>528.0732384820715</v>
       </c>
       <c r="E3" t="n">
-        <v>56.84258057770322</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F3" t="n">
-        <v>56.84258057770322</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y3" t="n">
-        <v>548.4453565401495</v>
+        <v>528.0732384820715</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>113.583345248266</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4507,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>114.6452713866835</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C5" t="n">
-        <v>114.6452713866835</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D5" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E5" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F5" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>114.6452713866835</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>601.5428246748836</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>358.0940480307835</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>358.0940480307835</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W5" t="n">
-        <v>358.0940480307835</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X5" t="n">
-        <v>114.6452713866835</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y5" t="n">
-        <v>114.6452713866835</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>473.4149733950735</v>
@@ -4677,19 +4677,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>914.2479596093278</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>679.0958513775852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="7">
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
         <v>19.28114311021272</v>
@@ -4744,31 +4744,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>787.0670914110444</v>
+      </c>
+      <c r="C8" t="n">
+        <v>787.0670914110444</v>
+      </c>
+      <c r="D8" t="n">
         <v>521.1660470154213</v>
       </c>
-      <c r="C8" t="n">
-        <v>255.2650026197982</v>
-      </c>
-      <c r="D8" t="n">
-        <v>255.2650026197982</v>
-      </c>
       <c r="E8" t="n">
-        <v>255.2650026197982</v>
+        <v>521.1660470154213</v>
       </c>
       <c r="F8" t="n">
-        <v>255.2650026197982</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="G8" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H8" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I8" t="n">
-        <v>25.19784761800413</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J8" t="n">
         <v>21.05936271613335</v>
@@ -4857,13 +4857,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21.05936271613335</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="C9" t="n">
-        <v>21.05936271613335</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="D9" t="n">
-        <v>21.05936271613335</v>
+        <v>127.5068418833952</v>
       </c>
       <c r="E9" t="n">
         <v>21.05936271613335</v>
@@ -4887,19 +4887,19 @@
         <v>21.05936271613335</v>
       </c>
       <c r="L9" t="n">
-        <v>261.6628906109959</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="M9" t="n">
-        <v>522.2725042231461</v>
+        <v>281.6689763282836</v>
       </c>
       <c r="N9" t="n">
-        <v>782.8821178352964</v>
+        <v>542.2785899404338</v>
       </c>
       <c r="O9" t="n">
-        <v>1043.295181927789</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.968135806668</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q9" t="n">
         <v>1052.968135806668</v>
@@ -4926,7 +4926,7 @@
         <v>127.5068418833952</v>
       </c>
       <c r="Y9" t="n">
-        <v>21.05936271613335</v>
+        <v>127.5068418833952</v>
       </c>
     </row>
     <row r="10">
@@ -4954,10 +4954,10 @@
         <v>182.5089274706538</v>
       </c>
       <c r="H10" t="n">
-        <v>21.05936271613335</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05936271613335</v>
+        <v>112.3979106539025</v>
       </c>
       <c r="J10" t="n">
         <v>21.05936271613335</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5063,28 +5063,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2510.703757037383</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>2247.308246834948</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5118,49 +5118,49 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U12" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1589.347031634718</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="C14" t="n">
-        <v>1220.384514694307</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="D14" t="n">
-        <v>862.1188160875561</v>
+        <v>1141.749745823171</v>
       </c>
       <c r="E14" t="n">
-        <v>476.3305634893118</v>
+        <v>755.9614932249262</v>
       </c>
       <c r="F14" t="n">
-        <v>476.3305634893118</v>
+        <v>344.9755884353187</v>
       </c>
       <c r="G14" t="n">
-        <v>207.4089578252748</v>
+        <v>344.9755884353187</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5300,28 +5300,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T14" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U14" t="n">
-        <v>2697.149091018222</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V14" t="n">
-        <v>2366.086203674652</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W14" t="n">
-        <v>2366.086203674652</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X14" t="n">
-        <v>2366.086203674652</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y14" t="n">
-        <v>1975.94687169884</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="15">
@@ -5346,34 +5346,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G15" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H15" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I15" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J15" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L15" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M15" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N15" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="C16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="D16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="E16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="F16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="G16" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H16" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I16" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5461,25 +5461,25 @@
         <v>550.5654064942401</v>
       </c>
       <c r="S16" t="n">
-        <v>336.2769833124028</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T16" t="n">
-        <v>108.9687959810045</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.94298182036445</v>
+        <v>550.5654064942401</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2476.569858826099</v>
+        <v>534.603677789272</v>
       </c>
       <c r="C17" t="n">
-        <v>2107.607341885688</v>
+        <v>534.603677789272</v>
       </c>
       <c r="D17" t="n">
-        <v>1749.341643278937</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E17" t="n">
-        <v>1363.553390680693</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G17" t="n">
         <v>534.603677789272</v>
@@ -5510,10 +5510,10 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
         <v>463.9616490733127</v>
@@ -5525,40 +5525,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S17" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U17" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V17" t="n">
-        <v>2642.120401548716</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>2642.120401548716</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X17" t="n">
-        <v>2642.120401548716</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y17" t="n">
-        <v>2642.120401548716</v>
+        <v>546.1098286224644</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5568,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C18" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D18" t="n">
         <v>665.1105362747051</v>
@@ -5589,46 +5589,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J18" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K18" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L18" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T18" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U18" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V18" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W18" t="n">
         <v>1572.325111207638</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5680,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N19" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S19" t="n">
-        <v>597.8010803716834</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T19" t="n">
-        <v>597.8010803716834</v>
+        <v>598.044640063212</v>
       </c>
       <c r="U19" t="n">
-        <v>308.6274700262513</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V19" t="n">
-        <v>53.94298182036445</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1580.775345511217</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C20" t="n">
-        <v>1211.812828570805</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D20" t="n">
-        <v>1211.812828570805</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="E20" t="n">
-        <v>1036.358670716696</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="F20" t="n">
-        <v>625.3727659270879</v>
+        <v>469.7640364376268</v>
       </c>
       <c r="G20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H20" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K20" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5786,16 +5786,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V20" t="n">
-        <v>2697.149091018222</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W20" t="n">
-        <v>2344.380435748108</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X20" t="n">
-        <v>1970.914677487028</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y20" t="n">
-        <v>1580.775345511217</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5805,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5838,25 +5838,25 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P21" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T21" t="n">
         <v>2289.884200196743</v>
@@ -5874,7 +5874,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.94298182036445</v>
+        <v>2294.708047044453</v>
       </c>
       <c r="C22" t="n">
-        <v>53.94298182036445</v>
+        <v>2125.771864116546</v>
       </c>
       <c r="D22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J22" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K22" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L22" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M22" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N22" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O22" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R22" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S22" t="n">
-        <v>535.9356573576496</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T22" t="n">
-        <v>308.6274700262513</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U22" t="n">
-        <v>308.6274700262513</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X22" t="n">
-        <v>53.94298182036445</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.94298182036445</v>
+        <v>2476.356511874693</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2310.5492509541</v>
+        <v>1130.084661047915</v>
       </c>
       <c r="C23" t="n">
-        <v>1941.586734013689</v>
+        <v>1130.084661047915</v>
       </c>
       <c r="D23" t="n">
-        <v>1583.321035406938</v>
+        <v>1130.084661047915</v>
       </c>
       <c r="E23" t="n">
-        <v>1197.532782808694</v>
+        <v>1130.084661047915</v>
       </c>
       <c r="F23" t="n">
-        <v>786.5468780190865</v>
+        <v>719.0987562583073</v>
       </c>
       <c r="G23" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K23" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N23" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O23" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X23" t="n">
-        <v>2697.149091018222</v>
+        <v>1520.223993023727</v>
       </c>
       <c r="Y23" t="n">
-        <v>2697.149091018222</v>
+        <v>1130.084661047915</v>
       </c>
     </row>
     <row r="24">
@@ -6042,31 +6042,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
         <v>266.2060027641994</v>
@@ -6111,7 +6111,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>728.1289842064342</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="C25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D25" t="n">
-        <v>728.1289842064342</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E25" t="n">
-        <v>709.5665374816297</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F25" t="n">
-        <v>562.6765899837193</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G25" t="n">
-        <v>393.6767897220517</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H25" t="n">
-        <v>235.9284171545819</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I25" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K25" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>2206.83913925958</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.73700797761</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662039</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171279</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V25" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W25" t="n">
-        <v>728.1289842064342</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X25" t="n">
-        <v>728.1289842064342</v>
+        <v>2191.89927156006</v>
       </c>
       <c r="Y25" t="n">
-        <v>728.1289842064342</v>
+        <v>2191.89927156006</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2323.103882821189</v>
+        <v>1937.083492693021</v>
       </c>
       <c r="C26" t="n">
-        <v>1954.141365880777</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D26" t="n">
-        <v>1595.875667274027</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E26" t="n">
-        <v>1210.087414675782</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F26" t="n">
-        <v>799.1015098861748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G26" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K26" t="n">
         <v>463.9616490733127</v>
@@ -6236,40 +6236,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V26" t="n">
-        <v>2675.872538091303</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W26" t="n">
-        <v>2323.103882821189</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.103882821189</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.103882821189</v>
+        <v>2323.683332757143</v>
       </c>
     </row>
     <row r="27">
@@ -6279,67 +6279,67 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C27" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J27" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>309.190302261463</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L27" t="n">
-        <v>713.8062203571349</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M27" t="n">
-        <v>1237.953133915166</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N27" t="n">
-        <v>1791.679670014717</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O27" t="n">
-        <v>2231.815593035061</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P27" t="n">
-        <v>2568.06040664989</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.9013233152508</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="C28" t="n">
-        <v>144.9013233152508</v>
+        <v>559.1928012785274</v>
       </c>
       <c r="D28" t="n">
-        <v>144.9013233152508</v>
+        <v>409.0761618661917</v>
       </c>
       <c r="E28" t="n">
-        <v>144.9013233152508</v>
+        <v>261.1630682837986</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858882</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6391,43 +6391,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R28" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="X28" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Y28" t="n">
-        <v>144.9013233152508</v>
+        <v>728.1289842064343</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1580.775345511217</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C29" t="n">
-        <v>1211.812828570805</v>
+        <v>770.1842990371763</v>
       </c>
       <c r="D29" t="n">
-        <v>1211.812828570805</v>
+        <v>411.9186004304258</v>
       </c>
       <c r="E29" t="n">
-        <v>1211.812828570805</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F29" t="n">
-        <v>800.8269237811974</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G29" t="n">
-        <v>382.8631156793842</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H29" t="n">
-        <v>55.66839571538708</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I29" t="n">
         <v>53.94298182036445</v>
@@ -6485,28 +6485,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W29" t="n">
-        <v>2344.380435748108</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X29" t="n">
-        <v>1970.914677487028</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y29" t="n">
-        <v>1580.775345511217</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C30" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E30" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H30" t="n">
         <v>115.9856282673424</v>
@@ -6540,43 +6540,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>2022.963088632153</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D31" t="n">
-        <v>2022.963088632153</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E31" t="n">
-        <v>2022.963088632153</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F31" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J31" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L31" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>2407.975480672791</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>2312.380258669114</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1192.157102157134</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="C32" t="n">
-        <v>823.1945852167225</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="D32" t="n">
-        <v>464.928886609972</v>
+        <v>1139.146815977588</v>
       </c>
       <c r="E32" t="n">
-        <v>464.928886609972</v>
+        <v>753.3585633793437</v>
       </c>
       <c r="F32" t="n">
-        <v>53.94298182036446</v>
+        <v>753.3585633793437</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036446</v>
+        <v>335.3947552775305</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T32" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U32" t="n">
-        <v>2636.054243096021</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V32" t="n">
-        <v>2304.99135575245</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W32" t="n">
-        <v>1952.222700482336</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X32" t="n">
-        <v>1578.756942221256</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y32" t="n">
-        <v>1578.756942221256</v>
+        <v>1525.74665604171</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6774,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
         <v>129.2001442204943</v>
@@ -6786,7 +6786,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N33" t="n">
         <v>1748.695370517453</v>
@@ -6832,10 +6832,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>2173.079728044489</v>
       </c>
       <c r="D34" t="n">
         <v>2022.963088632153</v>
@@ -6862,46 +6862,46 @@
         <v>2079.265281698421</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.83913925958</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.73700797761</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662039</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171279</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871845</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R34" t="n">
-        <v>2519.585513306029</v>
+        <v>2575.520772018258</v>
       </c>
       <c r="S34" t="n">
-        <v>2312.380258669114</v>
+        <v>2575.520772018258</v>
       </c>
       <c r="T34" t="n">
-        <v>2312.380258669114</v>
+        <v>2575.520772018258</v>
       </c>
       <c r="U34" t="n">
-        <v>2312.380258669114</v>
+        <v>2575.520772018258</v>
       </c>
       <c r="V34" t="n">
-        <v>2312.380258669114</v>
+        <v>2575.520772018258</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>2575.520772018258</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>2575.520772018258</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>2354.728192874728</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1236.578376364604</v>
+        <v>1580.775345511217</v>
       </c>
       <c r="C35" t="n">
-        <v>1236.578376364604</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="D35" t="n">
-        <v>878.3126777578536</v>
+        <v>1211.812828570805</v>
       </c>
       <c r="E35" t="n">
-        <v>492.5244251596094</v>
+        <v>826.0245759725606</v>
       </c>
       <c r="F35" t="n">
-        <v>81.53852037000183</v>
+        <v>826.0245759725606</v>
       </c>
       <c r="G35" t="n">
-        <v>81.53852037000183</v>
+        <v>408.0607678707474</v>
       </c>
       <c r="H35" t="n">
-        <v>81.53852037000183</v>
+        <v>80.86604790675028</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
@@ -6971,16 +6971,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V35" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X35" t="n">
-        <v>2013.317548404538</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y35" t="n">
-        <v>1623.178216428726</v>
+        <v>1580.775345511217</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C36" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
@@ -7069,13 +7069,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C37" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D37" t="n">
-        <v>53.94298182036445</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
         <v>53.94298182036445</v>
@@ -7117,28 +7117,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>728.1289842064342</v>
+        <v>638.1890284388842</v>
       </c>
       <c r="S37" t="n">
-        <v>513.8405610245969</v>
+        <v>638.1890284388842</v>
       </c>
       <c r="T37" t="n">
-        <v>513.8405610245969</v>
+        <v>638.1890284388842</v>
       </c>
       <c r="U37" t="n">
-        <v>513.8405610245969</v>
+        <v>638.1890284388842</v>
       </c>
       <c r="V37" t="n">
-        <v>259.1560728187101</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="W37" t="n">
-        <v>259.1560728187101</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="X37" t="n">
-        <v>259.1560728187101</v>
+        <v>383.5045402329973</v>
       </c>
       <c r="Y37" t="n">
-        <v>53.94298182036445</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7148,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1135.888471323017</v>
+        <v>781.1711973675267</v>
       </c>
       <c r="C38" t="n">
-        <v>766.9259543826058</v>
+        <v>412.208680427115</v>
       </c>
       <c r="D38" t="n">
-        <v>766.9259543826058</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036446</v>
@@ -7202,22 +7202,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018223</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U38" t="n">
-        <v>2638.862056894145</v>
+        <v>2241.741912021145</v>
       </c>
       <c r="V38" t="n">
-        <v>2638.862056894145</v>
+        <v>1910.679024677574</v>
       </c>
       <c r="W38" t="n">
-        <v>2286.093401624031</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="X38" t="n">
-        <v>1912.627643362951</v>
+        <v>1557.91036940746</v>
       </c>
       <c r="Y38" t="n">
-        <v>1522.488311387139</v>
+        <v>1167.771037431648</v>
       </c>
     </row>
     <row r="39">
@@ -7242,28 +7242,28 @@
         <v>359.3385232961347</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J39" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K39" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>438.9553738610023</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C40" t="n">
-        <v>270.0191909330954</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D40" t="n">
-        <v>270.0191909330954</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E40" t="n">
-        <v>270.0191909330954</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F40" t="n">
-        <v>123.129243435185</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G40" t="n">
-        <v>123.129243435185</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036446</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
         <v>53.94298182036446</v>
@@ -7351,31 +7351,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q40" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R40" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T40" t="n">
-        <v>728.1289842064343</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U40" t="n">
-        <v>438.9553738610023</v>
+        <v>471.403877728658</v>
       </c>
       <c r="V40" t="n">
-        <v>438.9553738610023</v>
+        <v>471.403877728658</v>
       </c>
       <c r="W40" t="n">
-        <v>438.9553738610023</v>
+        <v>471.403877728658</v>
       </c>
       <c r="X40" t="n">
-        <v>438.9553738610023</v>
+        <v>243.4143268306407</v>
       </c>
       <c r="Y40" t="n">
-        <v>438.9553738610023</v>
+        <v>243.4143268306407</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1320.425425970681</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C41" t="n">
-        <v>951.4629090302697</v>
+        <v>1551.447402037877</v>
       </c>
       <c r="D41" t="n">
-        <v>593.1972104235191</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E41" t="n">
-        <v>207.4089578252748</v>
+        <v>807.3934508328825</v>
       </c>
       <c r="F41" t="n">
-        <v>207.4089578252748</v>
+        <v>396.407546043275</v>
       </c>
       <c r="G41" t="n">
-        <v>207.4089578252748</v>
+        <v>396.407546043275</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>69.21282607927782</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036446</v>
@@ -7421,40 +7421,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N41" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O41" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P41" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2436.799171477687</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>2084.030516207573</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1710.564757946493</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y41" t="n">
-        <v>1320.425425970681</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7488,25 +7488,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7533,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C43" t="n">
-        <v>2636.88256938646</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D43" t="n">
-        <v>2486.765929974124</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E43" t="n">
-        <v>2338.852836391731</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F43" t="n">
-        <v>2191.962888893821</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J43" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K43" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L43" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N43" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O43" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S43" t="n">
-        <v>2697.149091018223</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="T43" t="n">
-        <v>2697.149091018223</v>
+        <v>571.1061430638139</v>
       </c>
       <c r="U43" t="n">
-        <v>2697.149091018223</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V43" t="n">
-        <v>2697.149091018223</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W43" t="n">
-        <v>2697.149091018223</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X43" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y43" t="n">
-        <v>2697.149091018223</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1192.157102157134</v>
+        <v>1491.915471247703</v>
       </c>
       <c r="C44" t="n">
-        <v>823.1945852167225</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>464.928886609972</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>464.928886609972</v>
+        <v>737.1647017090468</v>
       </c>
       <c r="F44" t="n">
-        <v>53.94298182036446</v>
+        <v>326.1787969194392</v>
       </c>
       <c r="G44" t="n">
         <v>53.94298182036446</v>
@@ -7649,16 +7649,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7676,22 +7676,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2596.123817820056</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2342.362032458147</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2342.362032458147</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2342.362032458147</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1968.896274197068</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1578.756942221256</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7701,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H45" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
         <v>53.94298182036446</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7770,7 +7770,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C46" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D46" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E46" t="n">
-        <v>359.4233114805111</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F46" t="n">
-        <v>212.5333639826007</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036446</v>
@@ -7837,19 +7837,19 @@
         <v>728.1289842064343</v>
       </c>
       <c r="U46" t="n">
-        <v>728.1289842064343</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V46" t="n">
-        <v>728.1289842064343</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X46" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y46" t="n">
-        <v>507.3364050629042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
   </sheetData>
@@ -8058,22 +8058,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8295,13 +8295,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>241.9453110519923</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
         <v>131.3417120833333</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>122.1609165114201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>129.8481964236087</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M9" t="n">
-        <v>392.8337743093849</v>
+        <v>405.3760678736852</v>
       </c>
       <c r="N9" t="n">
-        <v>381.7094952808121</v>
+        <v>394.5837460350002</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>376.3118568687447</v>
       </c>
       <c r="P9" t="n">
-        <v>134.2926466205232</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>133.6630807868109</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9243,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9951,7 +9951,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10437,7 +10437,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10665,7 +10665,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928328</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11388,7 +11388,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>274.4264991783522</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,7 +22565,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -22592,28 +22592,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>98.1469632631722</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,31 +22623,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>26.49685977152822</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>100.1576940703951</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22680,7 +22680,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -22689,7 +22689,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22747,10 +22747,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,10 +22784,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>164.3376445463983</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22799,13 +22799,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>245.0643151220611</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,22 +22826,22 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22863,7 +22863,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22884,7 +22884,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,7 +22917,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>176.6302781386795</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -22929,7 +22929,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,7 +22960,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
         <v>93.35918011667277</v>
@@ -22984,10 +22984,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>130.2684670434958</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,22 +23018,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.4918077118137</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>102.0308578193407</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>91.44100766901607</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>175.0124622370833</v>
       </c>
       <c r="G8" t="n">
-        <v>187.4437379520553</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H8" t="n">
         <v>338.5273214908784</v>
@@ -23042,7 +23042,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23106,7 +23106,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>52.26207607981169</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23166,7 +23166,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>100.2996914017151</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23194,13 +23194,13 @@
         <v>167.9494798159088</v>
       </c>
       <c r="H10" t="n">
-        <v>2.023134740338435</v>
+        <v>92.44829719872982</v>
       </c>
       <c r="I10" t="n">
         <v>154.2024705022107</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>17.44799951871611</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>226.9689958712394</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>31.86743971662654</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>147.5517804133984</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>35.80049221555242</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>11.99007165458445</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23701,13 +23701,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23729,22 +23729,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>218.8388043680905</v>
+        <v>371.34275233862</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23780,25 +23780,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23938,19 +23938,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>83.12091415361559</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>96.25160475629417</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23975,19 +23975,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>208.2307537966936</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2.121325949705351</v>
       </c>
       <c r="H20" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>46.83478528866354</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24175,16 +24175,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>21.87414536972213</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>12.42908554841739</v>
+        <v>79.20272609158883</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24257,22 +24257,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24364,28 +24364,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>128.0571403890127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24424,10 +24424,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>12.03533246204722</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24440,10 +24440,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>58.23741346252865</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24458,7 +24458,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24500,13 +24500,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>306.688471072485</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24601,19 +24601,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>55.37228994299373</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24646,10 +24646,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
         <v>225.0351054580843</v>
@@ -24667,7 +24667,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24677,28 +24677,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>27.53450764830103</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>150.2231564887888</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24838,19 +24838,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>156.1708888417951</v>
@@ -24892,13 +24892,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>157.4983735401878</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24917,22 +24917,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>45.28551704176277</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24971,10 +24971,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>190.7402680653093</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24983,7 +24983,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25117,13 +25117,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>26.25315617019351</v>
       </c>
       <c r="S34" t="n">
-        <v>7.012336859473038</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
         <v>225.0351054580843</v>
@@ -25135,13 +25135,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25151,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>124.6117330807202</v>
+        <v>125.2774808193393</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25211,13 +25211,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,7 +25318,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,10 +25357,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>57.62463577028333</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
         <v>225.0351054580843</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>15.42369326373264</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25394,10 +25394,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25406,7 +25406,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25442,19 +25442,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>193.5200037254523</v>
+        <v>16.81938065883986</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,10 +25546,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>127.2209704141021</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25558,16 +25558,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>87.67648984312278</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
@@ -25600,10 +25600,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25637,16 +25637,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.814170428537</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25685,13 +25685,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
-        <v>70.00583812500463</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25786,19 +25786,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>107.5829646831827</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
         <v>156.1708888417951</v>
@@ -25834,13 +25834,13 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>56.69292621882468</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25849,7 +25849,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,16 +25868,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>144.270713072711</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
@@ -25916,10 +25916,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>170.9117024662844</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -26029,13 +26029,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>10.30532391843701</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
@@ -26077,19 +26077,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.416541758</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417575</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.416541758</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>147339.1279972481</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
@@ -26329,10 +26329,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26347,10 +26347,10 @@
         <v>245779.7185133938</v>
       </c>
       <c r="N2" t="n">
+        <v>245779.7185133939</v>
+      </c>
+      <c r="O2" t="n">
         <v>245779.7185133938</v>
-      </c>
-      <c r="O2" t="n">
-        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525744</v>
+        <v>5625.642228525715</v>
       </c>
       <c r="M3" t="n">
         <v>102434.1176906351</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3448.117877250231</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="C4" t="n">
-        <v>3448.11787725023</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>3470.327708777268</v>
+        <v>196.6176664714449</v>
       </c>
       <c r="E4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="F4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="G4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="I4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="K4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="L4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="M4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597036</v>
       </c>
       <c r="O4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>3973.229411286961</v>
+        <v>513.1084990597036</v>
       </c>
     </row>
     <row r="5">
@@ -26482,22 +26482,22 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
         <v>49231.47806340946</v>
       </c>
       <c r="L5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8737.753479072861</v>
+        <v>12006.33885861914</v>
       </c>
       <c r="C6" t="n">
-        <v>89507.1850106206</v>
+        <v>92775.77039016689</v>
       </c>
       <c r="D6" t="n">
-        <v>67120.80530897413</v>
+        <v>70394.51535127996</v>
       </c>
       <c r="E6" t="n">
-        <v>-215145.4266448767</v>
+        <v>-211685.3057326495</v>
       </c>
       <c r="F6" t="n">
-        <v>192575.0110386975</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="G6" t="n">
-        <v>192575.0110386974</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="H6" t="n">
-        <v>192575.0110386975</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="I6" t="n">
-        <v>192575.0110386974</v>
+        <v>196035.1319509246</v>
       </c>
       <c r="J6" t="n">
-        <v>129515.0684395912</v>
+        <v>132975.1893518185</v>
       </c>
       <c r="K6" t="n">
-        <v>192575.0110386974</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="L6" t="n">
-        <v>186949.3688101717</v>
+        <v>190409.489722399</v>
       </c>
       <c r="M6" t="n">
-        <v>90140.89334806234</v>
+        <v>93601.01426028952</v>
       </c>
       <c r="N6" t="n">
-        <v>192575.0110386974</v>
+        <v>196035.1319509248</v>
       </c>
       <c r="O6" t="n">
-        <v>192575.0110386975</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="P6" t="n">
-        <v>192575.0110386975</v>
+        <v>196035.1319509248</v>
       </c>
     </row>
   </sheetData>
@@ -26802,22 +26802,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="L4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400794</v>
+        <v>22.22774507400783</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028886</v>
+        <v>411.0452388028887</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>1.704292963125458</v>
       </c>
       <c r="J9" t="n">
-        <v>4.676710155246559</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>7.993242550750314</v>
@@ -31610,10 +31610,10 @@
         <v>10.74790103688226</v>
       </c>
       <c r="M9" t="n">
-        <v>12.54229356430034</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>12.87425075418809</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>11.77742425104034</v>
@@ -32078,7 +32078,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K15" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32312,7 +32312,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32558,7 +32558,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>205.8702969983122</v>
+        <v>162.4518126576419</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
@@ -32786,10 +32786,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -33026,7 +33026,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>131.2017781649102</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33044,7 +33044,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33506,7 +33506,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33737,7 +33737,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33986,7 +33986,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516343</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479577</v>
@@ -34220,7 +34220,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
@@ -34445,7 +34445,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34466,7 +34466,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R45" t="n">
         <v>50.44659727034982</v>
@@ -34778,22 +34778,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35015,13 +35015,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>99.81127712997396</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -35255,7 +35255,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>243.0338665604673</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>263.2420339516669</v>
@@ -35264,13 +35264,13 @@
         <v>263.2420339516669</v>
       </c>
       <c r="O9" t="n">
-        <v>263.0434990833254</v>
+        <v>245.4930366753406</v>
       </c>
       <c r="P9" t="n">
-        <v>9.770660483716004</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35507,7 +35507,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K15" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35744,7 +35744,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35981,7 +35981,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
@@ -36218,7 +36218,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36692,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.3926104730631</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L30" t="n">
         <v>408.7029475713857</v>
@@ -36929,7 +36929,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37154,10 +37154,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N33" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
         <v>444.5817404245898</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37634,7 +37634,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>325.1459203262125</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37786,7 +37786,7 @@
         <v>421.5361394435301</v>
       </c>
       <c r="M41" t="n">
-        <v>485.8144648060969</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N41" t="n">
         <v>478.8956552492236</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,7 +37868,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O42" t="n">
         <v>444.5817404245898</v>
@@ -37877,7 +37877,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116803</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38108,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_17.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>889432.3191390566</v>
+        <v>929720.4897610372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242811.3234924421</v>
+        <v>259771.3927868521</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10911602.29072687</v>
+        <v>10947499.6809952</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7937223.370132059</v>
+        <v>7919633.117874094</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>124.9488863009592</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,22 +746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>131.1482206838727</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -795,16 +797,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>190.3453970742847</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X5" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="Y5" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>29.79900896488263</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1029,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1096,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>231.8635835046281</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>263.2420339516669</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.809496073036132</v>
       </c>
       <c r="X8" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>105.3830043755893</v>
+        <v>149.3895849832728</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1266,19 +1268,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1306,13 +1308,13 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>69.40990664858384</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>90.42516245839141</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1370,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>138.3038958997682</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>163.1482332545336</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1415,22 +1417,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S11" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1461,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1570,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R13" t="n">
         <v>146.6651919801579</v>
@@ -1579,10 +1581,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>99.34508049624266</v>
       </c>
       <c r="U13" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1607,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>288.1222805488047</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1654,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S14" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>306.75855427913</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1698,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H15" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1752,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773041</v>
       </c>
     </row>
     <row r="16">
@@ -1771,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>18.37682225755638</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>155.3197306044665</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J16" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.39108932486054</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1856,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H17" t="n">
         <v>323.9227727643571</v>
@@ -1904,10 +1906,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>316.5789886999469</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>147.2904825161266</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2090,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>411.6628440710896</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2126,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2175,7 +2177,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H21" t="n">
-        <v>104.3883541553078</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I21" t="n">
         <v>61.42221998250818</v>
@@ -2208,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325231</v>
+        <v>156.5912426325226</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>101.7806877295488</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>9.452075920964635</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2318,22 +2320,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>334.5814439292062</v>
+        <v>352.0426595656933</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2369,13 +2371,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2518,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>213.6743229269899</v>
+        <v>99.66075074687589</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>307.0354783084789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2567,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>339.0399185806818</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2618,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2713,19 +2715,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>59.72683757586851</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>155.8860385675339</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2798,13 +2800,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>354.3958624239608</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>376.1848636439243</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S30" t="n">
         <v>156.5912426325231</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,10 +2964,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>123.4514883688807</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>413.784170020795</v>
+        <v>95.09774413911198</v>
       </c>
       <c r="H32" t="n">
-        <v>278.6372557225944</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3184,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3229,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>120.4120358099644</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>54.47555601903409</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3253,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>307.9895902233669</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>26.65383542552197</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3326,10 +3328,10 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3365,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I36" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3430,22 +3432,22 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>17.13267830032996</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>89.04055620987452</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3481,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3503,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>188.7860545844391</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>234.4047868494494</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3594,7 +3596,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H39" t="n">
         <v>104.3883541553076</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3658,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.61100976783523</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3703,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>205.1478855987996</v>
       </c>
       <c r="T40" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3743,22 +3745,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>15.34611761378744</v>
       </c>
       <c r="H41" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>15.11714581632422</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3831,13 +3833,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.5310119231968</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H42" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>155.4526127311942</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3961,7 +3963,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>269.513456948084</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4022,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>111.2641011537979</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229341</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>269.027508828177</v>
       </c>
       <c r="V46" t="n">
-        <v>94.6392697836404</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="C2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="H2" t="n">
-        <v>231.8830517671884</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>601.5428246748836</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>475.3318284112885</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>475.3318284112885</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>475.3318284112885</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>475.3318284112885</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="Y2" t="n">
-        <v>475.3318284112885</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>528.0732384820715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C3" t="n">
-        <v>528.0732384820715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>528.0732384820715</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>395.6002882963414</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>249.0657303232264</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>248.2447175439888</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M3" t="n">
-        <v>486.8488635328713</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N3" t="n">
-        <v>725.4530095217538</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4443,16 +4445,16 @@
         <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>735.8335372470253</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>735.8335372470253</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>735.8335372470253</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>528.0732384820715</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="4">
@@ -4462,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
         <v>19.28114311021272</v>
@@ -4507,31 +4509,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C5" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>710.516763498309</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X5" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>467.067986854209</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4650,10 +4652,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
         <v>473.4149733950735</v>
@@ -4677,19 +4679,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>500.6814290152826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>257.2326523711826</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>49.38115216564972</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4744,13 +4746,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
         <v>19.28114311021272</v>
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>787.0670914110444</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="C8" t="n">
-        <v>787.0670914110444</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="D8" t="n">
-        <v>521.1660470154213</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E8" t="n">
-        <v>521.1660470154213</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F8" t="n">
-        <v>286.9604071117565</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G8" t="n">
-        <v>21.05936271613335</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H8" t="n">
-        <v>21.05936271613335</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>135.7250809573684</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>330.2546714142364</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>563.3128681098028</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>785.5101925369336</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>950.1371873885148</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>1052.968135806668</v>
+        <v>962.2293816994886</v>
       </c>
       <c r="X8" t="n">
-        <v>787.0670914110444</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="Y8" t="n">
-        <v>787.0670914110444</v>
+        <v>718.7806050553886</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.5068418833952</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C9" t="n">
-        <v>127.5068418833952</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D9" t="n">
-        <v>127.5068418833952</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>21.05936271613335</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>21.05936271613335</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M9" t="n">
-        <v>281.6689763282836</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>542.2785899404338</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>785.316696249021</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>977.3180709271197</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>1052.968135806668</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>824.7478070488723</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>589.5956988171297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>335.3583420889281</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X9" t="n">
-        <v>127.5068418833952</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y9" t="n">
-        <v>127.5068418833952</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>112.3979106539025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>112.3979106539025</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>21.05936271613335</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>54.48163939360305</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>100.1098670955241</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>150.08777394865</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>180.2341645716486</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>182.5089274706538</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>182.5089274706538</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2247.308246834948</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="C11" t="n">
-        <v>2107.607341885688</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="D11" t="n">
-        <v>1749.341643278937</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="E11" t="n">
         <v>1363.553390680693</v>
@@ -5045,7 +5047,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
@@ -5069,22 +5071,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T11" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U11" t="n">
-        <v>2247.308246834948</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V11" t="n">
-        <v>2247.308246834948</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W11" t="n">
-        <v>2247.308246834948</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X11" t="n">
-        <v>2247.308246834948</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="Y11" t="n">
-        <v>2247.308246834948</v>
+        <v>1528.349585887292</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H12" t="n">
         <v>115.9856282673424</v>
@@ -5118,25 +5120,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K12" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L12" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M12" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N12" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O12" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5157,10 +5159,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y12" t="n">
         <v>1156.713312237151</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I13" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5227,22 +5229,22 @@
         <v>336.2769833124028</v>
       </c>
       <c r="T13" t="n">
-        <v>108.9687959810045</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="U13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="V13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y13" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1141.749745823171</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C14" t="n">
-        <v>1141.749745823171</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D14" t="n">
-        <v>1141.749745823171</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E14" t="n">
-        <v>755.9614932249262</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F14" t="n">
-        <v>344.9755884353187</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G14" t="n">
-        <v>344.9755884353187</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H14" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5282,7 +5284,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
@@ -5303,25 +5305,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T14" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U14" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V14" t="n">
-        <v>1881.118241157406</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W14" t="n">
-        <v>1528.349585887292</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X14" t="n">
-        <v>1528.349585887292</v>
+        <v>1648.431733400556</v>
       </c>
       <c r="Y14" t="n">
-        <v>1528.349585887292</v>
+        <v>1648.431733400556</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C15" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D15" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E15" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F15" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G15" t="n">
         <v>221.4284102424006</v>
@@ -5358,22 +5360,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K15" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L15" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M15" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O15" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P15" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="E16" t="n">
-        <v>550.5654064942401</v>
+        <v>709.5665374816298</v>
       </c>
       <c r="F16" t="n">
-        <v>550.5654064942401</v>
+        <v>562.6765899837194</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220517</v>
+        <v>393.6767897220518</v>
       </c>
       <c r="H16" t="n">
         <v>235.9284171545819</v>
@@ -5455,31 +5457,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q16" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y16" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C17" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D17" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E17" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F17" t="n">
-        <v>534.603677789272</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G17" t="n">
         <v>534.603677789272</v>
@@ -5510,16 +5512,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I17" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
@@ -5531,10 +5533,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P17" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q17" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
         <v>2642.120401548716</v>
@@ -5543,22 +5545,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V17" t="n">
         <v>1662.48357412947</v>
       </c>
       <c r="W17" t="n">
-        <v>1309.714918859356</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="X17" t="n">
-        <v>936.2491605982761</v>
+        <v>1342.706817866897</v>
       </c>
       <c r="Y17" t="n">
-        <v>546.1098286224644</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="18">
@@ -5589,34 +5591,34 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I18" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J18" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K18" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L18" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N18" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O18" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K19" t="n">
         <v>110.2451748866326</v>
@@ -5680,43 +5682,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M19" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N19" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O19" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R19" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S19" t="n">
-        <v>728.1289842064343</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>598.044640063212</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U19" t="n">
-        <v>598.044640063212</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V19" t="n">
-        <v>343.3601518573251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1249.712458167646</v>
+        <v>750.1002187247734</v>
       </c>
       <c r="C20" t="n">
-        <v>880.7499412272343</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="D20" t="n">
-        <v>880.7499412272343</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E20" t="n">
-        <v>880.7499412272343</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F20" t="n">
-        <v>469.7640364376268</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G20" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I20" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
         <v>169.7108380533142</v>
@@ -5774,28 +5776,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R20" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T20" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U20" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V20" t="n">
-        <v>2366.086203674652</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W20" t="n">
-        <v>2013.317548404538</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X20" t="n">
-        <v>1639.851790143458</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y20" t="n">
-        <v>1249.712458167646</v>
+        <v>898.8784838925781</v>
       </c>
     </row>
     <row r="21">
@@ -5805,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C21" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D21" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E21" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F21" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G21" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H21" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K21" t="n">
         <v>309.190302261463</v>
@@ -5838,10 +5840,10 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M21" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N21" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5850,10 +5852,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5874,7 +5876,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y21" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2294.708047044453</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C22" t="n">
-        <v>2125.771864116546</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D22" t="n">
-        <v>2022.963088632153</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J22" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K22" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L22" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M22" t="n">
-        <v>2351.73700797761</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N22" t="n">
-        <v>2498.624145662039</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O22" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>2697.149091018223</v>
+        <v>718.5814327711164</v>
       </c>
       <c r="T22" t="n">
-        <v>2697.149091018223</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="U22" t="n">
-        <v>2697.149091018223</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="V22" t="n">
-        <v>2697.149091018223</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W22" t="n">
-        <v>2697.149091018223</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X22" t="n">
-        <v>2697.149091018223</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y22" t="n">
-        <v>2476.356511874693</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1130.084661047915</v>
+        <v>1933.544000781331</v>
       </c>
       <c r="C23" t="n">
-        <v>1130.084661047915</v>
+        <v>1564.58148384092</v>
       </c>
       <c r="D23" t="n">
-        <v>1130.084661047915</v>
+        <v>1206.315785234169</v>
       </c>
       <c r="E23" t="n">
-        <v>1130.084661047915</v>
+        <v>820.5275326359249</v>
       </c>
       <c r="F23" t="n">
-        <v>719.0987562583073</v>
+        <v>409.5416278463173</v>
       </c>
       <c r="G23" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H23" t="n">
         <v>53.94298182036446</v>
@@ -6017,22 +6019,22 @@
         <v>2697.149091018223</v>
       </c>
       <c r="T23" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U23" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V23" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W23" t="n">
-        <v>1893.689751284806</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X23" t="n">
-        <v>1520.223993023727</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y23" t="n">
-        <v>1130.084661047915</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C24" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I24" t="n">
         <v>53.94298182036446</v>
@@ -6069,22 +6071,22 @@
         <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>670.8219208598713</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6111,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>2206.83913925958</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M25" t="n">
-        <v>2351.73700797761</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>2498.624145662039</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O25" t="n">
-        <v>2618.281896171279</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P25" t="n">
-        <v>2697.149091018223</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S25" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T25" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U25" t="n">
-        <v>2697.149091018223</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V25" t="n">
-        <v>2697.149091018223</v>
+        <v>444.0275768541694</v>
       </c>
       <c r="W25" t="n">
-        <v>2407.731920981262</v>
+        <v>154.6104068172088</v>
       </c>
       <c r="X25" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y25" t="n">
-        <v>2191.89927156006</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1937.083492693021</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C26" t="n">
-        <v>1626.94664591678</v>
+        <v>1551.447402037878</v>
       </c>
       <c r="D26" t="n">
-        <v>1268.68094731003</v>
+        <v>1193.181703431127</v>
       </c>
       <c r="E26" t="n">
-        <v>882.8926947117852</v>
+        <v>807.393450832883</v>
       </c>
       <c r="F26" t="n">
-        <v>471.9067899221776</v>
+        <v>396.4075460432754</v>
       </c>
       <c r="G26" t="n">
         <v>53.94298182036446</v>
@@ -6266,10 +6268,10 @@
         <v>2697.149091018223</v>
       </c>
       <c r="X26" t="n">
-        <v>2323.683332757143</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="Y26" t="n">
-        <v>2323.683332757143</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6308,22 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>368.8844281164668</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L27" t="n">
-        <v>773.5003462121387</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M27" t="n">
-        <v>1297.64725977017</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N27" t="n">
-        <v>1851.373795869721</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2291.509718890065</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2627.754532504894</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018223</v>
@@ -6358,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C28" t="n">
-        <v>559.1928012785274</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D28" t="n">
-        <v>409.0761618661917</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E28" t="n">
-        <v>261.1630682837986</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F28" t="n">
-        <v>114.2731207858882</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036446</v>
@@ -6412,22 +6414,22 @@
         <v>728.1289842064343</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750361</v>
       </c>
       <c r="W28" t="n">
-        <v>728.1289842064343</v>
+        <v>211.4036268380755</v>
       </c>
       <c r="X28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y28" t="n">
-        <v>728.1289842064343</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1139.146815977588</v>
+        <v>1546.94416071721</v>
       </c>
       <c r="C29" t="n">
-        <v>770.1842990371763</v>
+        <v>1177.981643776798</v>
       </c>
       <c r="D29" t="n">
-        <v>411.9186004304258</v>
+        <v>819.7159451700475</v>
       </c>
       <c r="E29" t="n">
-        <v>53.94298182036445</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="F29" t="n">
-        <v>53.94298182036445</v>
+        <v>433.9276925718032</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V29" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="W29" t="n">
-        <v>2289.351746278601</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="X29" t="n">
-        <v>1915.885988017521</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y29" t="n">
-        <v>1525.74665604171</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6518,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M30" t="n">
         <v>1194.968834417902</v>
@@ -6561,7 +6563,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R30" t="n">
         <v>2646.935720430048</v>
@@ -6585,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="31">
@@ -6595,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="C31" t="n">
-        <v>667.8624625746712</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="D31" t="n">
-        <v>517.7458231623355</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="E31" t="n">
-        <v>369.8327295799424</v>
+        <v>325.5314024181544</v>
       </c>
       <c r="F31" t="n">
-        <v>222.942782082032</v>
+        <v>178.641454920244</v>
       </c>
       <c r="G31" t="n">
-        <v>53.94298182036445</v>
+        <v>178.641454920244</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6628,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N31" t="n">
-        <v>529.6040388502499</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>473.4444960005475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1139.146815977588</v>
+        <v>1315.737983561872</v>
       </c>
       <c r="C32" t="n">
-        <v>1139.146815977588</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="D32" t="n">
-        <v>1139.146815977588</v>
+        <v>946.7754666214607</v>
       </c>
       <c r="E32" t="n">
-        <v>753.3585633793437</v>
+        <v>560.9872140232164</v>
       </c>
       <c r="F32" t="n">
-        <v>753.3585633793437</v>
+        <v>150.0013092336089</v>
       </c>
       <c r="G32" t="n">
-        <v>335.3947552775305</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6725,25 +6727,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V32" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W32" t="n">
-        <v>2289.351746278601</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X32" t="n">
-        <v>1915.885988017521</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y32" t="n">
-        <v>1525.74665604171</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="33">
@@ -6777,25 +6779,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018223</v>
@@ -6832,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C34" t="n">
-        <v>2173.079728044489</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D34" t="n">
         <v>2022.963088632153</v>
@@ -6877,31 +6879,31 @@
         <v>2697.149091018222</v>
       </c>
       <c r="Q34" t="n">
-        <v>2697.149091018222</v>
+        <v>2667.732171871844</v>
       </c>
       <c r="R34" t="n">
-        <v>2575.520772018258</v>
+        <v>2519.585513306029</v>
       </c>
       <c r="S34" t="n">
-        <v>2575.520772018258</v>
+        <v>2305.297090124192</v>
       </c>
       <c r="T34" t="n">
-        <v>2575.520772018258</v>
+        <v>2077.988902792793</v>
       </c>
       <c r="U34" t="n">
-        <v>2575.520772018258</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="V34" t="n">
-        <v>2575.520772018258</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="W34" t="n">
-        <v>2575.520772018258</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="X34" t="n">
-        <v>2575.520772018258</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="Y34" t="n">
-        <v>2354.728192874728</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1580.775345511217</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C35" t="n">
-        <v>1211.812828570805</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D35" t="n">
-        <v>1211.812828570805</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E35" t="n">
-        <v>826.0245759725606</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F35" t="n">
-        <v>826.0245759725606</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G35" t="n">
-        <v>408.0607678707474</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H35" t="n">
-        <v>80.86604790675028</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6974,13 +6976,13 @@
         <v>2697.149091018222</v>
       </c>
       <c r="W35" t="n">
-        <v>2344.380435748108</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>1970.914677487028</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y35" t="n">
-        <v>1580.775345511217</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F36" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K36" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L36" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M36" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O36" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P36" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>201.8560754027576</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="C37" t="n">
-        <v>201.8560754027576</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="D37" t="n">
-        <v>201.8560754027576</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="E37" t="n">
-        <v>53.94298182036445</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="F37" t="n">
-        <v>53.94298182036445</v>
+        <v>562.6765899837193</v>
       </c>
       <c r="G37" t="n">
-        <v>53.94298182036445</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H37" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I37" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036445</v>
@@ -7117,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>638.1890284388842</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S37" t="n">
-        <v>638.1890284388842</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T37" t="n">
-        <v>638.1890284388842</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U37" t="n">
-        <v>638.1890284388842</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V37" t="n">
-        <v>383.5045402329973</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W37" t="n">
-        <v>383.5045402329973</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="X37" t="n">
-        <v>383.5045402329973</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="Y37" t="n">
-        <v>383.5045402329973</v>
+        <v>579.9823256406182</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>781.1711973675267</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="C38" t="n">
-        <v>412.208680427115</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="D38" t="n">
-        <v>53.94298182036446</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="E38" t="n">
-        <v>53.94298182036446</v>
+        <v>982.8165910026955</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036446</v>
+        <v>571.830686213088</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036446</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533142</v>
@@ -7178,46 +7180,46 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P38" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>2241.741912021145</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V38" t="n">
-        <v>1910.679024677574</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W38" t="n">
-        <v>1557.91036940746</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X38" t="n">
-        <v>1557.91036940746</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="Y38" t="n">
-        <v>1167.771037431648</v>
+        <v>1369.416431066817</v>
       </c>
     </row>
     <row r="39">
@@ -7227,19 +7229,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G39" t="n">
         <v>221.4284102424006</v>
@@ -7248,22 +7250,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
         <v>2188.831293537797</v>
@@ -7272,7 +7274,7 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
@@ -7296,7 +7298,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y39" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="40">
@@ -7306,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>190.2718927217162</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C40" t="n">
-        <v>190.2718927217162</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D40" t="n">
-        <v>190.2718927217162</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H40" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7339,43 +7341,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M40" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N40" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O40" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P40" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q40" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>698.7120650600563</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="T40" t="n">
-        <v>471.403877728658</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="U40" t="n">
-        <v>471.403877728658</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="V40" t="n">
-        <v>471.403877728658</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="W40" t="n">
-        <v>471.403877728658</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="X40" t="n">
-        <v>243.4143268306407</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="Y40" t="n">
-        <v>243.4143268306407</v>
+        <v>520.9088977430002</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1920.409918978289</v>
+        <v>919.0673236324992</v>
       </c>
       <c r="C41" t="n">
-        <v>1551.447402037877</v>
+        <v>550.1048066920875</v>
       </c>
       <c r="D41" t="n">
-        <v>1193.181703431127</v>
+        <v>550.1048066920875</v>
       </c>
       <c r="E41" t="n">
-        <v>807.3934508328825</v>
+        <v>550.1048066920875</v>
       </c>
       <c r="F41" t="n">
-        <v>396.407546043275</v>
+        <v>550.1048066920875</v>
       </c>
       <c r="G41" t="n">
-        <v>396.407546043275</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H41" t="n">
-        <v>69.21282607927782</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
         <v>463.9616490733126</v>
@@ -7436,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T41" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U41" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V41" t="n">
-        <v>2697.149091018222</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W41" t="n">
-        <v>2697.149091018222</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="X41" t="n">
-        <v>2697.149091018222</v>
+        <v>1695.806495672433</v>
       </c>
       <c r="Y41" t="n">
-        <v>2307.009759042411</v>
+        <v>1305.667163696621</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C42" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D42" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E42" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F42" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G42" t="n">
         <v>221.4284102424006</v>
@@ -7485,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K42" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L42" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M42" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N42" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O42" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7533,7 +7535,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y42" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7576,43 +7578,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M43" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N43" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O43" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>571.1061430638139</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T43" t="n">
-        <v>571.1061430638139</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U43" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V43" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W43" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7622,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1491.915471247703</v>
+        <v>962.1597273639309</v>
       </c>
       <c r="C44" t="n">
-        <v>1122.952954307291</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="D44" t="n">
-        <v>1122.952954307291</v>
+        <v>593.1972104235191</v>
       </c>
       <c r="E44" t="n">
-        <v>737.1647017090468</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="F44" t="n">
-        <v>326.1787969194392</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7664,34 +7666,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P44" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q44" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U44" t="n">
-        <v>2642.120401548716</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V44" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.364657664944</v>
       </c>
       <c r="W44" t="n">
-        <v>2642.120401548716</v>
+        <v>2112.364657664944</v>
       </c>
       <c r="X44" t="n">
-        <v>2268.654643287636</v>
+        <v>1738.898899403864</v>
       </c>
       <c r="Y44" t="n">
-        <v>1878.515311311824</v>
+        <v>1348.759567428053</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7724,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K45" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L45" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M45" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7813,43 +7815,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M46" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N46" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610023</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="V46" t="n">
-        <v>343.3601518573251</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036446</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036446</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036446</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
   </sheetData>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>369.8307175917693</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>222.4246658592332</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8298,13 +8300,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.8481964236087</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>127.8064787429919</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>405.3760678736852</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N9" t="n">
-        <v>394.5837460350002</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>376.3118568687447</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8769,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8787,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9714,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10425,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10683,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,7 +10904,7 @@
         <v>50.07369958270193</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11136,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11394,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>169.9996104372708</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>98.1469632631722</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22632,22 +22634,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>26.49685977152822</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22683,16 +22685,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="4">
@@ -22720,7 +22722,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207155</v>
       </c>
       <c r="I4" t="n">
         <v>155.4504749272583</v>
@@ -22747,10 +22749,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>164.3376445463983</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22805,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22844,13 +22846,13 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X5" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -22863,28 +22865,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>142.9094900234331</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22917,16 +22919,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22984,16 +22986,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>130.2684670434958</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23024,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>91.44100766901607</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>175.0124622370833</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>151.9681874521645</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>338.5273214908784</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>4.097100052852073</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>144.0576027644701</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>206.9118586999128</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>222.6908602868995</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3382516189322</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>347.4314726443769</v>
       </c>
       <c r="X8" t="n">
-        <v>106.4890667268022</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>52.26207607981169</v>
+        <v>8.255495472128132</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2940166796957</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>111.757373777286</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>87.69233988828962</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>97.08446202703753</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>170.7637213332854</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>199.9652070090748</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23191,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9494798159088</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>92.44829719872982</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>154.2024705022107</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>17.44799951871611</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.68702246598916</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>175.4274210366964</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>223.2933741908973</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.7682732010226</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3167657450791</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23258,13 +23260,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>226.9689958712394</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>218.7821368177282</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23309,16 +23311,16 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23434,10 +23436,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23467,10 +23469,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="U13" t="n">
-        <v>231.8063182229441</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23495,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>35.80049221555242</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T14" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>62.97254639933902</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23659,13 +23661,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>128.0571403890128</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.99007165458445</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S16" t="n">
         <v>212.1455389500189</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>371.34275233862</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23744,7 +23746,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,10 +23794,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>32.66198001746608</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23938,19 +23940,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S19" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>96.25160475629417</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>83.12091415361559</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>235.443359147354</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>2.121325949705351</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24014,22 +24016,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>46.83478528866354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,10 +24177,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>212.1455389500189</v>
+        <v>202.6934630290543</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2818742419777</v>
@@ -24187,13 +24189,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24206,22 +24208,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>79.20272609158883</v>
+        <v>61.74151045510166</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
         <v>151.9313162448613</v>
@@ -24257,13 +24259,13 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24364,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24406,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24421,13 +24423,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>12.03533246204722</v>
+        <v>126.0489046421613</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24443,7 +24445,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>58.23741346252865</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24455,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>74.74425144011315</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24506,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24601,19 +24603,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>107.5829646831824</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
@@ -24652,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24661,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>69.82361682150326</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24686,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>27.53450764830103</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>37.59930637687069</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,10 +24852,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>156.1708888417951</v>
+        <v>32.7194004729144</v>
       </c>
       <c r="I31" t="n">
         <v>134.9656217923382</v>
@@ -24895,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>318.686425881683</v>
       </c>
       <c r="H32" t="n">
-        <v>45.28551704176277</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24965,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
@@ -24977,7 +24979,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>26.25315617019351</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229436</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25141,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>74.74425144011371</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>125.2774808193393</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25214,10 +25216,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25318,22 +25320,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>128.2883697226013</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>57.62463577028333</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25369,7 +25371,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25391,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>224.9981154363559</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25442,10 +25444,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>16.81938065883986</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>127.2209704141021</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25567,7 +25569,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25591,16 +25593,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>6.99765335121927</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>413.784170020795</v>
+        <v>398.4380524070075</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.814170428537</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25804,10 +25806,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J43" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>56.69292621882468</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>144.270713072711</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>216.488157316337</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26041,10 +26043,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J46" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26077,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>17.25436541380077</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401876</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.7822080312</v>
+        <v>440325.782208031</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>459351.3990502442</v>
+        <v>440325.7822080312</v>
       </c>
     </row>
     <row r="5">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>766254.4165417576</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>766254.4165417575</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>766254.416541758</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="15">
@@ -26317,10 +26319,10 @@
         <v>141236.5716516325</v>
       </c>
       <c r="D2" t="n">
-        <v>147339.1279972481</v>
+        <v>141236.5716516326</v>
       </c>
       <c r="E2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="F2" t="n">
         <v>245779.7185133939</v>
@@ -26329,10 +26331,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="H2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="I2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="J2" t="n">
         <v>245779.7185133939</v>
@@ -26344,13 +26346,13 @@
         <v>245779.7185133939</v>
       </c>
       <c r="M2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="N2" t="n">
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133938</v>
+        <v>245779.7185133939</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>26613.58757266329</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>407720.4376835742</v>
+        <v>432846.174042996</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>5625.642228525715</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>102434.1176906351</v>
+        <v>107973.3606740581</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,7 +26423,7 @@
         <v>179.5324977039669</v>
       </c>
       <c r="D4" t="n">
-        <v>196.6176664714449</v>
+        <v>179.5324977039669</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26433,13 +26435,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="H4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="I4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="J4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="K4" t="n">
         <v>513.1084990597035</v>
@@ -26451,13 +26453,13 @@
         <v>513.1084990597035</v>
       </c>
       <c r="N4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
       <c r="O4" t="n">
         <v>513.1084990597035</v>
       </c>
       <c r="P4" t="n">
-        <v>513.1084990597036</v>
+        <v>513.1084990597035</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26475,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>50134.40740683336</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26482,10 +26484,10 @@
         <v>49231.47806340946</v>
       </c>
       <c r="G5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="H5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340947</v>
@@ -26494,7 +26496,7 @@
         <v>49231.47806340947</v>
       </c>
       <c r="K5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="L5" t="n">
         <v>49231.47806340946</v>
@@ -26503,13 +26505,13 @@
         <v>49231.47806340946</v>
       </c>
       <c r="N5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="O5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
       <c r="P5" t="n">
-        <v>49231.47806340947</v>
+        <v>49231.47806340946</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861914</v>
+        <v>12006.33885861916</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016689</v>
+        <v>92775.77039016687</v>
       </c>
       <c r="D6" t="n">
-        <v>70394.51535127996</v>
+        <v>92775.77039016693</v>
       </c>
       <c r="E6" t="n">
-        <v>-211685.3057326495</v>
+        <v>-236811.0420920713</v>
       </c>
       <c r="F6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="G6" t="n">
+        <v>196035.1319509248</v>
+      </c>
+      <c r="H6" t="n">
+        <v>196035.1319509248</v>
+      </c>
+      <c r="I6" t="n">
         <v>196035.1319509247</v>
       </c>
-      <c r="H6" t="n">
-        <v>196035.1319509246</v>
-      </c>
-      <c r="I6" t="n">
-        <v>196035.1319509246</v>
-      </c>
       <c r="J6" t="n">
-        <v>132975.1893518185</v>
+        <v>132975.1893518184</v>
       </c>
       <c r="K6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="L6" t="n">
-        <v>190409.489722399</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="M6" t="n">
-        <v>93601.01426028952</v>
+        <v>88061.77127686662</v>
       </c>
       <c r="N6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
       <c r="O6" t="n">
         <v>196035.1319509247</v>
       </c>
       <c r="P6" t="n">
-        <v>196035.1319509248</v>
+        <v>196035.1319509247</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>377.7436642170866</v>
@@ -26793,7 +26795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26802,10 +26804,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="G4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="H4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545557</v>
@@ -26814,7 +26816,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="L4" t="n">
         <v>674.2872727545556</v>
@@ -26823,13 +26825,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>23.01338268678962</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>354.730281530297</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.22774507400783</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>411.0452388028887</v>
+        <v>433.2729838768965</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.09251611130367678</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.94748062488878</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>3.566727381035002</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>7.852189301760444</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>11.76839629324508</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.59973623455499</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>16.24501962895175</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>16.50788103019332</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>15.58792394841738</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13.30393245060786</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544932</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.811515176679592</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.108210886332537</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0.4049892772318453</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0.00740128890429414</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04950048351498144</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4780704592104787</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.704292963125458</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>7.993242550750314</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>10.74790103688226</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31616,25 +31618,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>11.77742425104034</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>9.452421277523079</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.318693299210613</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>3.073372125605603</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.9194497705523959</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0.1995216857467891</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0.00325661075756457</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04149954254994848</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.3689686601259058</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1.248004425047542</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.934017658281358</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>4.821492307166741</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>6.169850171471433</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>6.505241928988742</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>6.35056181584803</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5.865771705150903</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5.019181037131949</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.475020785705232</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.865970340473138</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.723223846075011</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0.1773162272588708</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.002263611411815374</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,13 +31752,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
@@ -31774,22 +31776,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S11" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31829,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I12" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31862,16 +31864,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T12" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J13" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31932,13 +31934,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R13" t="n">
         <v>30.62819939701163</v>
@@ -31947,7 +31949,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31987,13 +31989,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
@@ -32011,22 +32013,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S14" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32066,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I15" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K15" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L15" t="n">
         <v>176.4169820478007</v>
@@ -32096,19 +32098,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q15" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T15" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J16" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32169,13 +32171,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R16" t="n">
         <v>30.62819939701163</v>
@@ -32184,7 +32186,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32312,7 +32314,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K18" t="n">
         <v>131.2017781649102</v>
@@ -32330,10 +32332,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>155.1528646479577</v>
+        <v>139.4326257134866</v>
       </c>
       <c r="Q18" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32558,13 +32560,13 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M21" t="n">
-        <v>162.4518126576419</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N21" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516338</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32786,10 +32788,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
-        <v>87.78329382423996</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L24" t="n">
         <v>176.4169820478007</v>
@@ -32807,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33026,7 +33028,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>115.4815392304395</v>
+        <v>11.76595806653305</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33044,7 +33046,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
         <v>50.44659727034982</v>
@@ -33266,7 +33268,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33506,7 +33508,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M33" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N33" t="n">
         <v>211.31907117367</v>
@@ -33737,7 +33739,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L36" t="n">
         <v>176.4169820478007</v>
@@ -33755,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33986,7 +33988,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O39" t="n">
-        <v>149.8971812516343</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P39" t="n">
         <v>155.1528646479577</v>
@@ -34120,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34144,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34199,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34220,7 +34222,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N42" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O42" t="n">
         <v>193.3156655923047</v>
@@ -34232,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34302,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34317,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34357,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34381,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34436,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34466,19 +34468,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q45" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34539,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34554,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>231.276337811895</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35173,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>115.8239578194293</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>196.4945358150182</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>235.4123198945115</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>224.4417418455866</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>166.289893789476</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>103.869644866821</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>263.2420339516669</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N9" t="n">
-        <v>263.2420339516669</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>245.4930366753406</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>193.94078250313</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>76.41420694903819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35334,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>33.75987543178757</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M10" t="n">
-        <v>46.08911889082933</v>
+        <v>39.58387696184059</v>
       </c>
       <c r="N10" t="n">
-        <v>50.48273419507662</v>
+        <v>44.13217237922859</v>
       </c>
       <c r="O10" t="n">
-        <v>30.45089961919058</v>
+        <v>24.58512791403967</v>
       </c>
       <c r="P10" t="n">
-        <v>2.297740302025437</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35422,10 +35424,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35486,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L12" t="n">
         <v>408.7029475713857</v>
@@ -35501,13 +35503,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P12" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35583,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K15" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L15" t="n">
         <v>408.7029475713857</v>
@@ -35738,13 +35740,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P15" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q15" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35805,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35820,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K18" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L18" t="n">
         <v>408.7029475713857</v>
@@ -35978,10 +35980,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>339.6412258735646</v>
+        <v>323.9209869390935</v>
       </c>
       <c r="Q18" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M21" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N21" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839189</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36437,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L24" t="n">
         <v>408.7029475713857</v>
@@ -36455,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>242.1053372686591</v>
+        <v>138.3897561047526</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36692,7 +36694,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,10 +36913,10 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37154,7 +37156,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M33" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N33" t="n">
         <v>559.3197334338902</v>
@@ -37166,7 +37168,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L36" t="n">
         <v>408.7029475713857</v>
@@ -37403,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37634,7 +37636,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O39" t="n">
-        <v>401.1632560839194</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
@@ -37792,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37856,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37868,16 +37870,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N42" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37953,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38029,10 +38031,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116803</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38108,13 +38110,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730635</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38190,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>929720.4897610372</v>
+        <v>861494.9029543325</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>259771.3927868521</v>
+        <v>170311.4370964853</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10947499.6809952</v>
+        <v>10850698.87543052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7919633.117874094</v>
+        <v>7968002.373389174</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>207.0150734853809</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,19 +670,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -703,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>244.5627323611424</v>
       </c>
     </row>
     <row r="3">
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>60.28005125577188</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>137.0815656650981</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -907,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>140.0417524496026</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.9091621893709</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052851991</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.05760276447</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
     </row>
     <row r="6">
@@ -974,31 +974,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>67.23495390164886</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1104,10 +1104,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>159.8350691069755</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>241.0142888776591</v>
+        <v>155.8903435161421</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.0252816852793</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.4795457699687</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1.809496073036132</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,19 +1211,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>149.3895849832728</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1262,25 +1262,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>170.2839726213331</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9364262421938</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>241.0142888776591</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>45.92301680884535</v>
       </c>
     </row>
     <row r="10">
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>133.186967585368</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1375,22 +1375,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>163.1482332545336</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>178.8652900300095</v>
       </c>
       <c r="H11" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H12" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S12" t="n">
         <v>156.5912426325231</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,22 +1572,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>102.5756487563991</v>
       </c>
       <c r="T13" t="n">
-        <v>99.34508049624266</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H14" t="n">
-        <v>323.9227727643571</v>
+        <v>290.5286403308939</v>
       </c>
       <c r="I14" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>306.75855427913</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>147.4450655646384</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1706,7 +1706,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I15" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S15" t="n">
         <v>156.5912426325231</v>
@@ -1754,7 +1754,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.37682225755638</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1809,19 +1809,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>139.8939792152983</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H17" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,25 +1891,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>316.5789886999469</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S18" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T18" t="n">
         <v>196.8897623984489</v>
@@ -2055,13 +2055,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2818742419777</v>
+        <v>230.2634979541059</v>
       </c>
       <c r="V19" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>147.2904825161266</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>339.5091118684755</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H20" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S20" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2210,7 +2210,7 @@
         <v>49.71123688229331</v>
       </c>
       <c r="S21" t="n">
-        <v>156.5912426325226</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T21" t="n">
         <v>196.8897623984489</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>9.452075920964635</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T22" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>169.0167291702124</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>352.0426595656933</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>47.38082832435602</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2478,16 +2478,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>23.05331571552203</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2520,7 +2520,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>99.66075074687589</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>339.0399185806818</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>155.8860385675339</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>376.1848636439243</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>107.3266672869708</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2891,7 +2891,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I30" t="n">
-        <v>61.4222199825084</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>123.4514883688807</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>25.60281064416403</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,22 +3031,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>95.09774413911198</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>122.4721255352882</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3231,25 +3231,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>54.47555601903409</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>307.9895902233669</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3435,19 +3435,19 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>17.13267830032996</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3480,13 +3480,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,22 +3505,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>188.7860545844391</v>
+        <v>363.6853032774461</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>205.1478855987996</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3748,19 +3748,19 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>15.34611761378744</v>
+        <v>323.9918595228954</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>90.02575748609793</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>156.127162662147</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2818742419777</v>
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>262.605332669</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,19 +4024,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>111.2641011537979</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>269.027508828177</v>
+        <v>213.6113417665674</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>72.23626279480629</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="C2" t="n">
-        <v>72.23626279480629</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="D2" t="n">
-        <v>72.23626279480629</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="E2" t="n">
-        <v>72.23626279480629</v>
+        <v>513.6311445709973</v>
       </c>
       <c r="F2" t="n">
-        <v>72.23626279480629</v>
+        <v>266.5980815799443</v>
       </c>
       <c r="G2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H2" t="n">
-        <v>72.23626279480629</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I2" t="n">
-        <v>31.35113235729608</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J2" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K2" t="n">
-        <v>122.2961490211351</v>
+        <v>124.4399474973462</v>
       </c>
       <c r="L2" t="n">
-        <v>302.3720006057937</v>
+        <v>306.8231980260855</v>
       </c>
       <c r="M2" t="n">
-        <v>519.3476278686978</v>
+        <v>526.3662512024591</v>
       </c>
       <c r="N2" t="n">
-        <v>725.2021500759372</v>
+        <v>734.8297429586089</v>
       </c>
       <c r="O2" t="n">
-        <v>874.3971002185853</v>
+        <v>886.4882690646268</v>
       </c>
       <c r="P2" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="V2" t="n">
-        <v>559.1338160830064</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="W2" t="n">
-        <v>315.6850394389064</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="X2" t="n">
-        <v>72.23626279480629</v>
+        <v>969.7703423957684</v>
       </c>
       <c r="Y2" t="n">
-        <v>72.23626279480629</v>
+        <v>722.7372794047154</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>146.1858617037014</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>377.8476075409624</v>
       </c>
       <c r="M3" t="n">
-        <v>383.2428491569326</v>
+        <v>619.9647125784934</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>862.0818176160244</v>
       </c>
       <c r="O3" t="n">
-        <v>712.019119383956</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="Q3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>978.2509294445696</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>917.3619887821737</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>682.2098805504311</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>435.1768175593782</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>227.3253173538453</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="C4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="D4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="E4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="F4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="G4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>47.85425064936706</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>88.07040250863014</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>132.7649205860522</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="W4" t="n">
-        <v>153.8134336004835</v>
+        <v>158.0312465334349</v>
       </c>
       <c r="X4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
       <c r="Y4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.56501858889139</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>19.28114311021272</v>
+        <v>641.554361345924</v>
       </c>
       <c r="C5" t="n">
-        <v>19.28114311021272</v>
+        <v>641.554361345924</v>
       </c>
       <c r="D5" t="n">
-        <v>19.28114311021272</v>
+        <v>641.554361345924</v>
       </c>
       <c r="E5" t="n">
-        <v>19.28114311021272</v>
+        <v>641.554361345924</v>
       </c>
       <c r="F5" t="n">
-        <v>19.28114311021272</v>
+        <v>375.6533169503006</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>234.1970013446414</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>25.19784761800408</v>
       </c>
       <c r="J5" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K5" t="n">
-        <v>122.2961490211351</v>
+        <v>135.7250809573685</v>
       </c>
       <c r="L5" t="n">
-        <v>302.3720006057937</v>
+        <v>330.2546714142367</v>
       </c>
       <c r="M5" t="n">
-        <v>519.3476278686978</v>
+        <v>563.3128681098033</v>
       </c>
       <c r="N5" t="n">
-        <v>725.2021500759372</v>
+        <v>785.5101925369341</v>
       </c>
       <c r="O5" t="n">
-        <v>874.3971002185853</v>
+        <v>950.1371873885156</v>
       </c>
       <c r="P5" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="T5" t="n">
-        <v>964.0571555106362</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="U5" t="n">
-        <v>964.0571555106362</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="V5" t="n">
-        <v>720.6083788665362</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="W5" t="n">
-        <v>477.1596022224361</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="X5" t="n">
-        <v>262.7299197543128</v>
+        <v>907.4554057415475</v>
       </c>
       <c r="Y5" t="n">
-        <v>19.28114311021272</v>
+        <v>641.554361345924</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.0571555106362</v>
+        <v>354.7498470027159</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>180.2968177215889</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>180.2968177215889</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I6" t="n">
-        <v>20.03527576299844</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J6" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>154.3302328992137</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>394.9337607940764</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>655.5433744062269</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>860.9667611285699</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>860.9667611285699</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="Q6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="T6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="U6" t="n">
-        <v>964.0571555106362</v>
+        <v>1052.968135806669</v>
       </c>
       <c r="V6" t="n">
-        <v>964.0571555106362</v>
+        <v>985.0540409565183</v>
       </c>
       <c r="W6" t="n">
-        <v>964.0571555106362</v>
+        <v>730.8166842283167</v>
       </c>
       <c r="X6" t="n">
-        <v>964.0571555106362</v>
+        <v>522.9651840227839</v>
       </c>
       <c r="Y6" t="n">
-        <v>964.0571555106362</v>
+        <v>522.9651840227839</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="K7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="L7" t="n">
-        <v>46.5952681179257</v>
+        <v>54.48163939360313</v>
       </c>
       <c r="M7" t="n">
-        <v>85.78330631014788</v>
+        <v>100.1098670955242</v>
       </c>
       <c r="N7" t="n">
-        <v>129.4741569655842</v>
+        <v>150.0877739486502</v>
       </c>
       <c r="O7" t="n">
-        <v>153.8134336004835</v>
+        <v>180.2341645716489</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>182.5089274706541</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>21.05936271613337</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>718.7806050553886</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="C8" t="n">
-        <v>718.7806050553886</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="D8" t="n">
-        <v>475.3318284112885</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="E8" t="n">
-        <v>475.3318284112885</v>
+        <v>579.9844679696339</v>
       </c>
       <c r="F8" t="n">
-        <v>475.3318284112885</v>
+        <v>301.0384945329112</v>
       </c>
       <c r="G8" t="n">
-        <v>475.3318284112885</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H8" t="n">
-        <v>231.8830517671884</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618846</v>
       </c>
       <c r="K8" t="n">
-        <v>122.2961490211351</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L8" t="n">
-        <v>302.3720006057937</v>
+        <v>344.9085595412868</v>
       </c>
       <c r="M8" t="n">
-        <v>519.3476278686978</v>
+        <v>586.3582880173956</v>
       </c>
       <c r="N8" t="n">
-        <v>725.2021500759372</v>
+        <v>817.0829279823542</v>
       </c>
       <c r="O8" t="n">
-        <v>874.3971002185853</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P8" t="n">
-        <v>964.0571555106362</v>
+        <v>1099.465256491931</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>962.1762753293418</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="W8" t="n">
-        <v>962.2293816994886</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="X8" t="n">
-        <v>718.7806050553886</v>
+        <v>737.4494614202825</v>
       </c>
       <c r="Y8" t="n">
-        <v>718.7806050553886</v>
+        <v>737.4494614202825</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>344.6327430815143</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="C9" t="n">
-        <v>170.1797138003873</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="D9" t="n">
-        <v>170.1797138003873</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>168.6270790693035</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J9" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>147.4500811540258</v>
       </c>
       <c r="L9" t="n">
-        <v>144.6387031680501</v>
+        <v>393.6055477467269</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>393.6055477467269</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>571.8505627155204</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>838.3473762988042</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>1035.231496296093</v>
       </c>
       <c r="Q9" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>932.6220420606005</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>704.4034296947482</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>469.2513214630055</v>
       </c>
       <c r="W9" t="n">
-        <v>720.6083788665362</v>
+        <v>215.0139647348038</v>
       </c>
       <c r="X9" t="n">
-        <v>720.6083788665362</v>
+        <v>215.0139647348038</v>
       </c>
       <c r="Y9" t="n">
-        <v>512.8480801015824</v>
+        <v>168.6270790693035</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>58.70189726492715</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>107.6904745160687</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>160.9488293168851</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>194.1252445754623</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>198.9927170031359</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>22.09252109618844</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1528.349585887292</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="C11" t="n">
-        <v>1528.349585887292</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="D11" t="n">
-        <v>1528.349585887292</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="E11" t="n">
-        <v>1363.553390680693</v>
+        <v>972.7956167052919</v>
       </c>
       <c r="F11" t="n">
-        <v>952.5674858910851</v>
+        <v>561.8097119156844</v>
       </c>
       <c r="G11" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H11" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I11" t="n">
         <v>53.94298182036445</v>
@@ -5044,16 +5044,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M11" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O11" t="n">
         <v>2238.843319642689</v>
@@ -5068,25 +5068,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T11" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U11" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V11" t="n">
-        <v>1881.118241157406</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W11" t="n">
-        <v>1528.349585887292</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X11" t="n">
-        <v>1528.349585887292</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y11" t="n">
-        <v>1528.349585887292</v>
+        <v>1331.061315312042</v>
       </c>
     </row>
     <row r="12">
@@ -5102,43 +5102,43 @@
         <v>814.044945935956</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F12" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I12" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J12" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K12" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L12" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M12" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N12" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O12" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P12" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q12" t="n">
         <v>2697.149091018222</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="C13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="D13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="E13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F13" t="n">
-        <v>235.9284171545819</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I13" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J13" t="n">
         <v>53.94298182036445</v>
@@ -5205,46 +5205,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L13" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M13" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q13" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R13" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S13" t="n">
-        <v>336.2769833124028</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="T13" t="n">
-        <v>235.9284171545819</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="U13" t="n">
-        <v>235.9284171545819</v>
+        <v>624.5172177858293</v>
       </c>
       <c r="V13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="W13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="Y13" t="n">
-        <v>235.9284171545819</v>
+        <v>369.8327295799424</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1261.831893336434</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="C14" t="n">
-        <v>892.8693763960225</v>
+        <v>1920.409918978289</v>
       </c>
       <c r="D14" t="n">
-        <v>534.603677789272</v>
+        <v>1562.144220371538</v>
       </c>
       <c r="E14" t="n">
-        <v>534.603677789272</v>
+        <v>1176.355967773294</v>
       </c>
       <c r="F14" t="n">
-        <v>534.603677789272</v>
+        <v>765.3700629836867</v>
       </c>
       <c r="G14" t="n">
-        <v>534.603677789272</v>
+        <v>347.4062548818736</v>
       </c>
       <c r="H14" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I14" t="n">
         <v>53.94298182036445</v>
@@ -5281,16 +5281,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K14" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L14" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M14" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N14" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O14" t="n">
         <v>2238.843319642689</v>
@@ -5302,28 +5302,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U14" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V14" t="n">
-        <v>2311.057514205145</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W14" t="n">
-        <v>1958.288858935031</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X14" t="n">
-        <v>1648.431733400556</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y14" t="n">
-        <v>1648.431733400556</v>
+        <v>2307.009759042411</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C15" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D15" t="n">
         <v>665.1105362747051</v>
@@ -5369,13 +5369,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N15" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O15" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P15" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q15" t="n">
         <v>2697.149091018222</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E16" t="n">
-        <v>709.5665374816298</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F16" t="n">
-        <v>562.6765899837194</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G16" t="n">
-        <v>393.6767897220518</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H16" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I16" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J16" t="n">
         <v>53.94298182036445</v>
@@ -5442,46 +5442,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L16" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M16" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N16" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O16" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P16" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q16" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R16" t="n">
-        <v>728.1289842064342</v>
+        <v>557.4050153476338</v>
       </c>
       <c r="S16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="T16" t="n">
-        <v>728.1289842064342</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y16" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>952.5674858910851</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C17" t="n">
-        <v>952.5674858910851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D17" t="n">
-        <v>952.5674858910851</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E17" t="n">
-        <v>952.5674858910851</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F17" t="n">
-        <v>952.5674858910851</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G17" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H17" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I17" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J17" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K17" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L17" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M17" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N17" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O17" t="n">
         <v>2238.843319642689</v>
@@ -5539,28 +5539,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R17" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S17" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T17" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U17" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V17" t="n">
-        <v>1662.48357412947</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W17" t="n">
-        <v>1342.706817866897</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X17" t="n">
-        <v>1342.706817866897</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y17" t="n">
-        <v>952.5674858910851</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="18">
@@ -5603,22 +5603,22 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M18" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N18" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O18" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P18" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q18" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R18" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S18" t="n">
         <v>2488.762748073964</v>
@@ -5703,10 +5703,10 @@
         <v>513.8405610245969</v>
       </c>
       <c r="T19" t="n">
-        <v>513.8405610245969</v>
+        <v>286.5323736931987</v>
       </c>
       <c r="U19" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V19" t="n">
         <v>53.94298182036445</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>750.1002187247734</v>
+        <v>1611.619444146874</v>
       </c>
       <c r="C20" t="n">
-        <v>381.1377017843616</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D20" t="n">
-        <v>381.1377017843616</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E20" t="n">
-        <v>381.1377017843616</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F20" t="n">
-        <v>381.1377017843616</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G20" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H20" t="n">
         <v>53.94298182036445</v>
@@ -5752,13 +5752,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J20" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K20" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L20" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M20" t="n">
         <v>1362.238747280443</v>
@@ -5779,25 +5779,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S20" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T20" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U20" t="n">
-        <v>1993.54646147304</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V20" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="W20" t="n">
-        <v>1662.48357412947</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="X20" t="n">
-        <v>1289.01781586839</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="Y20" t="n">
-        <v>898.8784838925781</v>
+        <v>1998.219284210995</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J21" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K21" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L21" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M21" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N21" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O21" t="n">
         <v>2188.831293537797</v>
@@ -5852,10 +5852,10 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q21" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R21" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S21" t="n">
         <v>2488.762748073964</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E22" t="n">
         <v>53.94298182036445</v>
@@ -5937,25 +5937,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S22" t="n">
-        <v>718.5814327711164</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T22" t="n">
-        <v>491.2732454397182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U22" t="n">
-        <v>491.2732454397182</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="V22" t="n">
-        <v>491.2732454397182</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="W22" t="n">
-        <v>201.8560754027576</v>
+        <v>224.6669506791649</v>
       </c>
       <c r="X22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y22" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1933.544000781331</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="C23" t="n">
-        <v>1564.58148384092</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="D23" t="n">
-        <v>1206.315785234169</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="E23" t="n">
-        <v>820.5275326359249</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F23" t="n">
-        <v>409.5416278463173</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
         <v>53.94298182036446</v>
@@ -6013,28 +6013,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S23" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T23" t="n">
-        <v>2697.149091018223</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U23" t="n">
-        <v>2697.149091018223</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V23" t="n">
-        <v>2697.149091018223</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W23" t="n">
-        <v>2697.149091018223</v>
+        <v>1614.624151579615</v>
       </c>
       <c r="X23" t="n">
-        <v>2323.683332757143</v>
+        <v>1241.158393318536</v>
       </c>
       <c r="Y23" t="n">
-        <v>1933.544000781331</v>
+        <v>1241.158393318536</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018223</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="C25" t="n">
-        <v>53.94298182036446</v>
+        <v>269.7756312415668</v>
       </c>
       <c r="D25" t="n">
-        <v>53.94298182036446</v>
+        <v>269.7756312415668</v>
       </c>
       <c r="E25" t="n">
-        <v>53.94298182036446</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J25" t="n">
         <v>53.94298182036446</v>
@@ -6168,31 +6168,31 @@
         <v>728.1289842064343</v>
       </c>
       <c r="Q25" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R25" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S25" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T25" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U25" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="V25" t="n">
-        <v>444.0275768541694</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="W25" t="n">
-        <v>154.6104068172088</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="X25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
       <c r="Y25" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694737</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1920.409918978289</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C26" t="n">
-        <v>1551.447402037878</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D26" t="n">
-        <v>1193.181703431127</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E26" t="n">
-        <v>807.393450832883</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F26" t="n">
-        <v>396.4075460432754</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I26" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P26" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W26" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X26" t="n">
-        <v>2697.149091018223</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y26" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H27" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I27" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J27" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L27" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M27" t="n">
         <v>1194.968834417902</v>
@@ -6326,22 +6326,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6360,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K28" t="n">
         <v>110.2451748866326</v>
@@ -6393,43 +6393,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M28" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N28" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>500.8207968750361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U28" t="n">
-        <v>500.8207968750361</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V28" t="n">
-        <v>500.8207968750361</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>211.4036268380755</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y28" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1546.94416071721</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="C29" t="n">
-        <v>1177.981643776798</v>
+        <v>1349.56916835588</v>
       </c>
       <c r="D29" t="n">
-        <v>819.7159451700475</v>
+        <v>991.3034697491294</v>
       </c>
       <c r="E29" t="n">
-        <v>433.9276925718032</v>
+        <v>991.3034697491294</v>
       </c>
       <c r="F29" t="n">
-        <v>433.9276925718032</v>
+        <v>580.3175649595219</v>
       </c>
       <c r="G29" t="n">
-        <v>53.94298182036446</v>
+        <v>162.3537568577087</v>
       </c>
       <c r="H29" t="n">
-        <v>53.94298182036446</v>
+        <v>162.3537568577087</v>
       </c>
       <c r="I29" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P29" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q29" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W29" t="n">
-        <v>2697.149091018223</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X29" t="n">
-        <v>2323.683332757143</v>
+        <v>1739.708500331692</v>
       </c>
       <c r="Y29" t="n">
-        <v>1933.544000781331</v>
+        <v>1349.56916835588</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>988.4979752170834</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C30" t="n">
-        <v>814.0449459359564</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D30" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E30" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F30" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G30" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H30" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I30" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
         <v>129.2001442204943</v>
@@ -6548,37 +6548,37 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R30" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S30" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T30" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U30" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V30" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W30" t="n">
         <v>1572.325111207638</v>
@@ -6587,7 +6587,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y30" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C31" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D31" t="n">
-        <v>473.4444960005475</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E31" t="n">
-        <v>325.5314024181544</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F31" t="n">
-        <v>178.641454920244</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G31" t="n">
-        <v>178.641454920244</v>
+        <v>283.209303713795</v>
       </c>
       <c r="H31" t="n">
-        <v>53.94298182036446</v>
+        <v>125.4609311463251</v>
       </c>
       <c r="I31" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J31" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K31" t="n">
         <v>110.2451748866326</v>
@@ -6630,43 +6630,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M31" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N31" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O31" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V31" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W31" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X31" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y31" t="n">
-        <v>473.4444960005475</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1315.737983561872</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="C32" t="n">
-        <v>946.7754666214607</v>
+        <v>739.4034003911122</v>
       </c>
       <c r="D32" t="n">
-        <v>946.7754666214607</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="E32" t="n">
-        <v>560.9872140232164</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="F32" t="n">
-        <v>150.0013092336089</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G32" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I32" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P32" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q32" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T32" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U32" t="n">
-        <v>2465.942913862886</v>
+        <v>2573.439873305811</v>
       </c>
       <c r="V32" t="n">
-        <v>2465.942913862886</v>
+        <v>2242.37698596224</v>
       </c>
       <c r="W32" t="n">
-        <v>2465.942913862886</v>
+        <v>1889.608330692125</v>
       </c>
       <c r="X32" t="n">
-        <v>2092.477155601806</v>
+        <v>1516.142572431046</v>
       </c>
       <c r="Y32" t="n">
-        <v>1702.337823625994</v>
+        <v>1126.003240455234</v>
       </c>
     </row>
     <row r="33">
@@ -6755,31 +6755,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036469</v>
       </c>
       <c r="J33" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K33" t="n">
         <v>309.190302261463</v>
@@ -6824,7 +6824,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y33" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K34" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L34" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M34" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N34" t="n">
-        <v>2498.624145662038</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O34" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P34" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q34" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R34" t="n">
-        <v>2519.585513306029</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S34" t="n">
-        <v>2305.297090124192</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T34" t="n">
-        <v>2077.988902792793</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U34" t="n">
-        <v>2022.963088632153</v>
+        <v>598.044640063212</v>
       </c>
       <c r="V34" t="n">
-        <v>2022.963088632153</v>
+        <v>343.3601518573251</v>
       </c>
       <c r="W34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y34" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1995.909162857192</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.68094731003</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117852</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036445</v>
@@ -6937,19 +6937,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6979,10 +6979,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="X35" t="n">
-        <v>2697.149091018222</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y35" t="n">
-        <v>2307.009759042411</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="36">
@@ -6992,67 +6992,67 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H36" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I36" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C37" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D37" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E37" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
-        <v>562.6765899837193</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G37" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H37" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I37" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J37" t="n">
         <v>53.94298182036445</v>
@@ -7119,28 +7119,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U37" t="n">
-        <v>579.9823256406182</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V37" t="n">
-        <v>579.9823256406182</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W37" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X37" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y37" t="n">
-        <v>579.9823256406182</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>982.8165910026955</v>
+        <v>1534.318342165211</v>
       </c>
       <c r="C38" t="n">
-        <v>982.8165910026955</v>
+        <v>1165.3558252248</v>
       </c>
       <c r="D38" t="n">
-        <v>982.8165910026955</v>
+        <v>807.0901266180492</v>
       </c>
       <c r="E38" t="n">
-        <v>982.8165910026955</v>
+        <v>421.301874019805</v>
       </c>
       <c r="F38" t="n">
-        <v>571.830686213088</v>
+        <v>421.301874019805</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
         <v>53.94298182036445</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.387305656314</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.324418312743</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W38" t="n">
-        <v>1759.555763042629</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X38" t="n">
-        <v>1759.555763042629</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="Y38" t="n">
-        <v>1369.416431066817</v>
+        <v>1920.918182229333</v>
       </c>
     </row>
     <row r="39">
@@ -7256,25 +7256,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K39" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L39" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N39" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O39" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P39" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q39" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R39" t="n">
         <v>2646.935720430048</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C40" t="n">
-        <v>351.9727148150933</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D40" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E40" t="n">
         <v>53.94298182036445</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>520.9088977430002</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>520.9088977430002</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V40" t="n">
-        <v>520.9088977430002</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W40" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X40" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y40" t="n">
-        <v>520.9088977430002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>919.0673236324992</v>
+        <v>1546.944160717209</v>
       </c>
       <c r="C41" t="n">
-        <v>550.1048066920875</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="D41" t="n">
-        <v>550.1048066920875</v>
+        <v>1177.981643776797</v>
       </c>
       <c r="E41" t="n">
-        <v>550.1048066920875</v>
+        <v>792.1933911785532</v>
       </c>
       <c r="F41" t="n">
-        <v>550.1048066920875</v>
+        <v>381.2074863889456</v>
       </c>
       <c r="G41" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036445</v>
@@ -7414,10 +7414,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K41" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1695.806495672433</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X41" t="n">
-        <v>1695.806495672433</v>
+        <v>2323.683332757143</v>
       </c>
       <c r="Y41" t="n">
-        <v>1305.667163696621</v>
+        <v>1933.544000781331</v>
       </c>
     </row>
     <row r="42">
@@ -7490,25 +7490,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018223</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="C43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="D43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="E43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="F43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I43" t="n">
         <v>53.94298182036445</v>
@@ -7596,25 +7596,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>570.4247794971948</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>343.1165921657965</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y43" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>962.1597273639309</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C44" t="n">
-        <v>593.1972104235191</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="D44" t="n">
-        <v>593.1972104235191</v>
+        <v>1122.952954307291</v>
       </c>
       <c r="E44" t="n">
-        <v>207.4089578252748</v>
+        <v>737.1647017090463</v>
       </c>
       <c r="F44" t="n">
-        <v>207.4089578252748</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H44" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
         <v>53.94298182036445</v>
@@ -7651,16 +7651,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K44" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M44" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O44" t="n">
         <v>2238.843319642689</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2478.514423990285</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U44" t="n">
-        <v>2224.752638628377</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V44" t="n">
-        <v>2112.364657664944</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W44" t="n">
-        <v>2112.364657664944</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X44" t="n">
-        <v>1738.898899403864</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y44" t="n">
-        <v>1348.759567428053</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018223</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G46" t="n">
         <v>53.94298182036445</v>
@@ -7812,46 +7812,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L46" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M46" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N46" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O46" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T46" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U46" t="n">
-        <v>456.3840257941342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="V46" t="n">
-        <v>456.3840257941342</v>
+        <v>512.3599521189926</v>
       </c>
       <c r="W46" t="n">
-        <v>456.3840257941342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="X46" t="n">
-        <v>456.3840257941342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y46" t="n">
-        <v>235.5914466506042</v>
+        <v>222.942782082032</v>
       </c>
     </row>
   </sheetData>
@@ -8063,22 +8063,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>386.6967662831607</v>
       </c>
       <c r="N3" t="n">
-        <v>222.4246658592332</v>
+        <v>375.9044444444757</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>259.9387816449951</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,25 +8297,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>405.3760678736855</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>338.8400825099424</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>133.6630807868108</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>233.2169876979182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>311.3871817487812</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013777</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>194.3570488013777</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.64146763747169</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>175.7187681780997</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22558,19 +22558,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>162.313313380569</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>170.7252358559294</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I2" t="n">
-        <v>169.9996104372708</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U2" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>141.6752062949112</v>
       </c>
     </row>
     <row r="3">
@@ -22640,16 +22640,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>165.6608109389445</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>7.132250799777211</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22719,19 +22719,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H4" t="n">
-        <v>29.04020492207155</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,22 +22746,22 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22770,7 +22770,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>88.6280897239391</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -22795,19 +22795,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>143.6340117900443</v>
       </c>
       <c r="G5" t="n">
-        <v>415.302737515135</v>
+        <v>275.1684689542288</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,31 +22828,31 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>157.4457150350269</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>122.9959047043864</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.6923398882896</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,25 +22910,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>97.0844620270375</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>165.5656332477764</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,19 +22956,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
-        <v>162.2271725074396</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>90.42516245839138</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>17.44799951871606</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,22 +22983,22 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>82.68702246598912</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>175.4274210366963</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>63.45830508392172</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3167657450791</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23026,25 +23026,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>198.7926981045408</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>130.719532039356</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>139.005434824964</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>205.0481221176458</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,28 +23065,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>205.8118405263978</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3343897888113</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>347.4314726443769</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23099,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>8.255495472128132</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.2681884137393</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>111.5079271034444</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>86.80307722268739</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>199.8611009721718</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>10.68069428326055</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>159.759678968459</v>
       </c>
     </row>
     <row r="10">
@@ -23193,19 +23193,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9278262653587</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>161.6656840978772</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>153.551289182031</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>88.89425643449839</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>14.93225064571201</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>80.87383288310646</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>174.4537986637794</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>222.9160118599466</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>52.54455953715788</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3155846423218</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23263,22 +23263,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>218.7821368177282</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>234.9188799907855</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T11" t="n">
         <v>216.4483203576578</v>
@@ -23323,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>109.5698901936198</v>
       </c>
       <c r="T13" t="n">
-        <v>125.6900249618416</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U13" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>33.3941324334632</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S14" t="n">
         <v>174.4157128089715</v>
@@ -23554,16 +23554,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>62.97254639933902</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>128.0571403890128</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,19 +23697,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>146.6651919801579</v>
+        <v>6.771212764859513</v>
       </c>
       <c r="S16" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>32.66198001746608</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23943,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="V19" t="n">
-        <v>83.12091415361559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>235.443359147354</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>25.76377990253201</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I20" t="n">
         <v>151.9313162448613</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,22 +24177,22 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6934630290543</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>56.69292621882474</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>61.74151045510166</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>323.9227727643571</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>301.860140393057</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,16 +24366,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>123.3806469310471</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
@@ -24423,13 +24423,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>126.0489046421613</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>74.74425144011315</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H26" t="n">
         <v>323.9227727643571</v>
@@ -24508,7 +24508,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24654,19 +24654,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>69.82361682150326</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>37.59930637687069</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I29" t="n">
-        <v>151.9313162448613</v>
+        <v>44.60464895789042</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>216.4483203576578</v>
@@ -24742,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,13 +24855,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H31" t="n">
-        <v>32.7194004729144</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>134.9656217923382</v>
+        <v>109.3628111481742</v>
       </c>
       <c r="J31" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>318.686425881683</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T32" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>128.7520419730012</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25119,25 +25119,25 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>231.8063182229436</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>74.74425144011371</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,7 +25168,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25323,19 +25323,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>128.2883697226013</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
         <v>212.1455389500189</v>
@@ -25368,13 +25368,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>224.9981154363559</v>
+        <v>50.09886674334888</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
         <v>151.9313162448613</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>174.4157128089715</v>
@@ -25447,13 +25447,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25551,13 +25551,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,19 +25599,19 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>6.99765335121927</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2818742419777</v>
+        <v>157.4983735401876</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25636,19 +25636,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>398.4380524070075</v>
+        <v>89.79231049789962</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,25 +25675,25 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>56.40820516047124</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>56.01837628787186</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>144.2707130727114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
-        <v>216.488157316337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,10 +26067,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S46" t="n">
         <v>212.1455389500189</v>
@@ -26079,19 +26079,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>17.25436541380077</v>
+        <v>72.67053247541034</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>440325.782208031</v>
+        <v>443398.5167931499</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>440325.782208031</v>
+        <v>459351.3990502443</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>440325.7822080312</v>
+        <v>469531.8577299755</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417579</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>766254.4165417579</v>
+        <v>766254.4165417578</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>766254.4165417578</v>
+        <v>766254.4165417576</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141236.5716516325</v>
+        <v>142222.1657638405</v>
       </c>
       <c r="C2" t="n">
-        <v>141236.5716516325</v>
+        <v>147339.1279972482</v>
       </c>
       <c r="D2" t="n">
-        <v>141236.5716516326</v>
+        <v>150604.5581398032</v>
       </c>
       <c r="E2" t="n">
         <v>245779.7185133939</v>
@@ -26340,10 +26340,10 @@
         <v>245779.7185133939</v>
       </c>
       <c r="K2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="L2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="M2" t="n">
         <v>245779.7185133939</v>
@@ -26352,7 +26352,7 @@
         <v>245779.7185133939</v>
       </c>
       <c r="O2" t="n">
-        <v>245779.7185133939</v>
+        <v>245779.7185133938</v>
       </c>
       <c r="P2" t="n">
         <v>245779.7185133939</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154773</v>
+        <v>85498.77860120904</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23645.3401818957</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>14295.33970214087</v>
       </c>
       <c r="E3" t="n">
-        <v>432846.174042996</v>
+        <v>394217.2929137605</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63988.37154589871</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4807.45449175018</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3268.538594581485</v>
       </c>
       <c r="M3" t="n">
-        <v>107973.3606740581</v>
+        <v>99215.77767884445</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.5324977039669</v>
+        <v>182.2467736288815</v>
       </c>
       <c r="C4" t="n">
-        <v>179.5324977039669</v>
+        <v>196.6176664714451</v>
       </c>
       <c r="D4" t="n">
-        <v>179.5324977039669</v>
+        <v>206.5374179011836</v>
       </c>
       <c r="E4" t="n">
         <v>513.1084990597035</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>48281.26876376167</v>
+        <v>48577.10433863014</v>
       </c>
       <c r="C5" t="n">
-        <v>48281.26876376167</v>
+        <v>50134.40740683338</v>
       </c>
       <c r="D5" t="n">
-        <v>48281.26876376167</v>
+        <v>51181.37951678014</v>
       </c>
       <c r="E5" t="n">
         <v>49231.47806340946</v>
@@ -26493,13 +26493,13 @@
         <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="K5" t="n">
+        <v>49231.47806340946</v>
+      </c>
+      <c r="L5" t="n">
         <v>49231.47806340947</v>
-      </c>
-      <c r="K5" t="n">
-        <v>49231.47806340947</v>
-      </c>
-      <c r="L5" t="n">
-        <v>49231.47806340946</v>
       </c>
       <c r="M5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12006.33885861916</v>
+        <v>-4195.99844542051</v>
       </c>
       <c r="C6" t="n">
-        <v>92775.77039016687</v>
+        <v>61503.72602469044</v>
       </c>
       <c r="D6" t="n">
-        <v>92775.77039016693</v>
+        <v>73254.34891165652</v>
       </c>
       <c r="E6" t="n">
-        <v>-236811.0420920713</v>
+        <v>-204250.574708655</v>
       </c>
       <c r="F6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="G6" t="n">
-        <v>196035.1319509248</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="H6" t="n">
-        <v>196035.1319509248</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="I6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="J6" t="n">
-        <v>132975.1893518184</v>
+        <v>125978.3466592068</v>
       </c>
       <c r="K6" t="n">
-        <v>196035.1319509247</v>
+        <v>185159.2637133553</v>
       </c>
       <c r="L6" t="n">
-        <v>196035.1319509247</v>
+        <v>186698.1796105239</v>
       </c>
       <c r="M6" t="n">
-        <v>88061.77127686662</v>
+        <v>90750.94052626105</v>
       </c>
       <c r="N6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051055</v>
       </c>
       <c r="O6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051054</v>
       </c>
       <c r="P6" t="n">
-        <v>196035.1319509247</v>
+        <v>189966.7182051055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>23.01338268678986</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>35.02126071912534</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="F3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="G3" t="n">
         <v>377.7436642170866</v>
@@ -26779,7 +26779,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="P3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
     </row>
     <row r="4">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>241.0142888776591</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="D4" t="n">
-        <v>241.0142888776591</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="E4" t="n">
         <v>674.2872727545556</v>
@@ -26813,13 +26813,13 @@
         <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="K4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="L4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="K4" t="n">
-        <v>674.2872727545557</v>
-      </c>
-      <c r="L4" t="n">
-        <v>674.2872727545556</v>
       </c>
       <c r="M4" t="n">
         <v>674.2872727545556</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19.33951979354754</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>12.00787803233548</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170866</v>
+        <v>342.7224034979614</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>12.91447975068832</v>
       </c>
       <c r="E4" t="n">
-        <v>433.2729838768965</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611423</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068843</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>398.1307590522</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>18.67930159052477</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>12.91447975068832</v>
       </c>
       <c r="M4" t="n">
-        <v>433.2729838768965</v>
+        <v>398.1307590522001</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.9277519194678708</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,22 +31120,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -31153,16 +31153,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.006624998659945165</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.05890226081296706</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.9849566189522114</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.2978840306553526</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.02830681245612934</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.09251611130367775</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>0.9474806248887899</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3.56672738103504</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7.852189301760526</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>11.76839629324521</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>14.59973623455514</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>16.24501962895192</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>16.50788103019349</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>15.58792394841755</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13.303932450608</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214545037</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>5.811515176679652</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.108210886332559</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.4049892772318495</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.007401288904294218</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,22 +31357,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.04950048351498196</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>0.4780704592104837</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.704292963125476</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>7.993242550750399</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>10.74790103688238</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -31384,22 +31384,22 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>9.452421277523179</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>6.31869329921068</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3.073372125605635</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.9194497705524055</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>0.1995216857467912</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.003256610757564604</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.04149954254994892</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.3689686601259097</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1.248004425047555</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2.934017658281388</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>4.821492307166792</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>6.169850171471498</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>6.50524192898881</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>6.350561815848097</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>5.865771705150964</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.019181037132002</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3.475020785705268</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.865970340473157</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.7232238460750187</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.1773162272588726</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.002263611411815398</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.1407889878155791</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1.4418552214663</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.42776745276012</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>17.90888720884599</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>22.21755819470702</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>24.72131435677233</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>25.12133106840334</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>23.72136057081218</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>20.24563243411507</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>15.20362680796963</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>8.84383625587038</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.208229059847513</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.616303794162698</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.01126311902524633</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,22 +31594,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.0753287494713262</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.7275171330520189</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>2.593555628727679</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>16.35591992358773</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -31618,25 +31618,25 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>17.92262575689049</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>14.38448725650263</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.676990252263571</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.399198482504676</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.3036277226497752</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.004955838781008305</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.06315309310006208</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.5614884095623704</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1.899185745227322</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>4.464923682174389</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>7.337241180170847</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>9.389142586894685</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>9.89953440294882</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>9.664145601394052</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>8.926402650179687</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>7.638079550938414</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>5.288210368587926</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>2.839592713390063</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>1.100586177025627</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.2698359432457197</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.003444714169094299</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J11" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L11" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N11" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q11" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U11" t="n">
         <v>0.1214853995472036</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I12" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K12" t="n">
         <v>131.2017781649102</v>
@@ -31852,28 +31852,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O12" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q12" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L13" t="n">
         <v>101.2724571246924</v>
@@ -31934,22 +31934,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S13" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U13" t="n">
         <v>0.0371551145131561</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H14" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I14" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J14" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K14" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L14" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M14" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N14" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O14" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P14" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q14" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R14" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S14" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T14" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U14" t="n">
         <v>0.1214853995472036</v>
@@ -32068,16 +32068,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H15" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I15" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J15" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K15" t="n">
         <v>131.2017781649102</v>
@@ -32089,28 +32089,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N15" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O15" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P15" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R15" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S15" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T15" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H16" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I16" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J16" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K16" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L16" t="n">
         <v>101.2724571246924</v>
@@ -32171,22 +32171,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O16" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P16" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R16" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S16" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T16" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U16" t="n">
         <v>0.0371551145131561</v>
@@ -32323,7 +32323,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M18" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N18" t="n">
         <v>211.31907117367</v>
@@ -32332,10 +32332,10 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P18" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R18" t="n">
         <v>50.44659727034982</v>
@@ -32557,7 +32557,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L21" t="n">
-        <v>176.4169820478007</v>
+        <v>56.98116194942361</v>
       </c>
       <c r="M21" t="n">
         <v>205.8702969983122</v>
@@ -32566,7 +32566,7 @@
         <v>211.31907117367</v>
       </c>
       <c r="O21" t="n">
-        <v>149.8971812516338</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P21" t="n">
         <v>155.1528646479577</v>
@@ -32800,7 +32800,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N24" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O24" t="n">
         <v>193.3156655923047</v>
@@ -32809,7 +32809,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q24" t="n">
-        <v>60.29709682323596</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
         <v>50.44659727034982</v>
@@ -33028,7 +33028,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
-        <v>11.76595806653305</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L27" t="n">
         <v>176.4169820478007</v>
@@ -33268,7 +33268,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L30" t="n">
-        <v>56.98116194942361</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M30" t="n">
         <v>205.8702969983122</v>
@@ -33283,7 +33283,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q30" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>50.44659727034982</v>
@@ -33499,7 +33499,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33520,7 +33520,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q33" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R33" t="n">
         <v>50.44659727034982</v>
@@ -33736,7 +33736,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33757,7 +33757,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R36" t="n">
         <v>50.44659727034982</v>
@@ -33897,7 +33897,7 @@
         <v>128.8865178727436</v>
       </c>
       <c r="K38" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081575</v>
       </c>
       <c r="L38" t="n">
         <v>239.6413398630669</v>
@@ -33973,7 +33973,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33994,7 +33994,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q39" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R39" t="n">
         <v>50.44659727034982</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34231,19 +34231,19 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q42" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323596</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,46 +34359,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K44" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L44" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M44" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N44" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S44" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I45" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34465,22 +34465,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P45" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q45" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,22 +34541,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R46" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S46" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34701,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>105.9342716247019</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>184.2255055845852</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>221.7606597741147</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153932</v>
+        <v>210.5691835920705</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>153.1904304101191</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>92.68955593933616</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>127.8998415301111</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>234.0017634719808</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="N3" t="n">
-        <v>91.0829537758999</v>
+        <v>244.5627323611424</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>117.3425372005507</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.59002526031614</v>
+        <v>28.57498187926835</v>
       </c>
       <c r="M4" t="n">
-        <v>39.58387696184059</v>
+        <v>40.62237561541726</v>
       </c>
       <c r="N4" t="n">
-        <v>44.13217237922859</v>
+        <v>45.14597785598184</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>25.52154136099265</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>115.8239578194294</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>196.4945358150183</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655598</v>
+        <v>235.4123198945117</v>
       </c>
       <c r="N5" t="n">
-        <v>207.9338608153932</v>
+        <v>224.4417418455867</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>166.2898937894762</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>103.8696448668211</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.61704058897</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>243.0338665604674</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>263.2420339516672</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>207.4983704266091</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>193.9407825031301</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35099,19 +35099,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.59002526031614</v>
+        <v>33.75987543178763</v>
       </c>
       <c r="M7" t="n">
-        <v>39.58387696184059</v>
+        <v>46.0891188908294</v>
       </c>
       <c r="N7" t="n">
-        <v>44.13217237922859</v>
+        <v>50.48273419507669</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>30.45089961919064</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.29774030202549</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>121.9644487350302</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>204.1123577751702</v>
       </c>
       <c r="M8" t="n">
-        <v>219.1673002655598</v>
+        <v>243.8886146223321</v>
       </c>
       <c r="N8" t="n">
-        <v>207.9338608153932</v>
+        <v>233.0551918837966</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>174.4233304118708</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>110.8113448503282</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>5.212927593424828</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35257,19 +35257,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>248.6418854471727</v>
       </c>
       <c r="M9" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>180.045469665448</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>269.1887005891756</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>198.8728484821096</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35336,19 +35336,19 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>27.59002526031614</v>
+        <v>36.97916784721082</v>
       </c>
       <c r="M10" t="n">
-        <v>39.58387696184059</v>
+        <v>49.4834113647894</v>
       </c>
       <c r="N10" t="n">
-        <v>44.13217237922859</v>
+        <v>53.79631798062265</v>
       </c>
       <c r="O10" t="n">
-        <v>24.58512791403967</v>
+        <v>33.51153056421936</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>4.916638815831902</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,25 +35409,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K11" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q11" t="n">
         <v>153.9975062898689</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K12" t="n">
         <v>257.8255762031298</v>
@@ -35500,16 +35500,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P12" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,7 +35570,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L13" t="n">
         <v>128.8624823850085</v>
@@ -35585,7 +35585,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K14" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L14" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M14" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N14" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O14" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P14" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q14" t="n">
         <v>153.9975062898689</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K15" t="n">
         <v>257.8255762031298</v>
@@ -35737,16 +35737,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N15" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O15" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P15" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q15" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,7 +35807,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L16" t="n">
         <v>128.8624823850085</v>
@@ -35822,7 +35822,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P16" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M18" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N18" t="n">
         <v>559.3197334338902</v>
@@ -35980,10 +35980,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P18" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K21" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L21" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M21" t="n">
         <v>529.4413268262938</v>
@@ -36214,7 +36214,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O21" t="n">
-        <v>401.1632560839189</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P21" t="n">
         <v>339.6412258735646</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,7 +36448,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
@@ -36457,7 +36457,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,7 +36676,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
-        <v>138.3897561047526</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36916,7 +36916,7 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L30" t="n">
-        <v>289.2671274730086</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M30" t="n">
         <v>529.4413268262938</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K38" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L38" t="n">
         <v>421.5361394435301</v>
@@ -37624,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L39" t="n">
         <v>408.7029475713857</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,13 +37873,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38016,25 +38016,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L44" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M44" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>257.8255762031298</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q45" t="n">
-        <v>54.37527471535667</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
